--- a/JupyterNotebooks/AvgHW/Alpha3F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,18 +82,21 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
@@ -89,9 +104,6 @@
   </si>
   <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +564,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9855641510551513</v>
+      </c>
+      <c r="D3">
+        <v>0.9554655739681941</v>
+      </c>
+      <c r="E3">
         <v>1.034952805342675</v>
       </c>
-      <c r="D3">
-        <v>0.9554655739681943</v>
-      </c>
-      <c r="E3">
-        <v>0.9855641510551513</v>
-      </c>
       <c r="F3">
+        <v>0.9554655739681941</v>
+      </c>
+      <c r="G3">
         <v>1.034952805342675</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.088827300761225</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.9718601434917811</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1.006597016612174</v>
-      </c>
-      <c r="J3">
-        <v>0.9554655739681943</v>
       </c>
       <c r="K3">
         <v>1.034952805342675</v>
@@ -644,19 +656,19 @@
         <v>0.9855641510551513</v>
       </c>
       <c r="M3">
-        <v>0.9705148625116728</v>
+        <v>0.9705148625116726</v>
       </c>
       <c r="N3">
-        <v>0.9705148625116728</v>
+        <v>0.9705148625116726</v>
       </c>
       <c r="O3">
-        <v>0.9709632895050423</v>
+        <v>0.9709632895050421</v>
       </c>
       <c r="P3">
-        <v>0.9919941767886735</v>
+        <v>0.9919941767886734</v>
       </c>
       <c r="Q3">
-        <v>0.9919941767886735</v>
+        <v>0.9919941767886734</v>
       </c>
       <c r="R3">
         <v>1.002733833927174</v>
@@ -676,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.07217271135824</v>
+        <v>0.9828423388664312</v>
       </c>
       <c r="D4">
         <v>0.99296287225667</v>
       </c>
       <c r="E4">
-        <v>0.9828423388664312</v>
+        <v>1.07217271135824</v>
       </c>
       <c r="F4">
+        <v>0.99296287225667</v>
+      </c>
+      <c r="G4">
         <v>1.07217271135824</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.172816940723907</v>
       </c>
-      <c r="H4">
-        <v>0.9410090113137385</v>
-      </c>
       <c r="I4">
+        <v>0.9410090113137383</v>
+      </c>
+      <c r="J4">
         <v>1.009725142191717</v>
-      </c>
-      <c r="J4">
-        <v>0.99296287225667</v>
       </c>
       <c r="K4">
         <v>1.07217271135824</v>
@@ -738,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.55072942171161</v>
+        <v>0.8298310633807513</v>
       </c>
       <c r="D5">
         <v>0.6866623577106727</v>
       </c>
       <c r="E5">
-        <v>0.8298310633807513</v>
+        <v>1.55072942171161</v>
       </c>
       <c r="F5">
+        <v>0.6866623577106727</v>
+      </c>
+      <c r="G5">
         <v>1.55072942171161</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1.204487487202061</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.9054890614091666</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1.160684705532755</v>
-      </c>
-      <c r="J5">
-        <v>0.6866623577106727</v>
       </c>
       <c r="K5">
         <v>1.55072942171161</v>
@@ -800,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.287836394245102</v>
+        <v>0.8801269628989373</v>
       </c>
       <c r="D6">
         <v>2.107395498622743</v>
       </c>
       <c r="E6">
-        <v>0.8801269628989373</v>
+        <v>1.287836394245102</v>
       </c>
       <c r="F6">
+        <v>2.107395498622743</v>
+      </c>
+      <c r="G6">
         <v>1.287836394245102</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2.648071871987566</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.7900946376189804</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.9538348561730109</v>
-      </c>
-      <c r="J6">
-        <v>2.107395498622743</v>
       </c>
       <c r="K6">
         <v>1.287836394245102</v>
@@ -862,49 +874,49 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>1.012158587864614</v>
+      </c>
+      <c r="D7">
+        <v>0.9993436807909769</v>
+      </c>
+      <c r="E7">
         <v>1.002196571635674</v>
       </c>
-      <c r="D7">
-        <v>0.9993436807909775</v>
-      </c>
-      <c r="E7">
-        <v>1.012158587864616</v>
-      </c>
       <c r="F7">
+        <v>0.9993436807909769</v>
+      </c>
+      <c r="G7">
         <v>1.002196571635674</v>
       </c>
-      <c r="G7">
-        <v>0.9989679694045381</v>
-      </c>
       <c r="H7">
-        <v>0.998310189583881</v>
+        <v>0.9989679694045387</v>
       </c>
       <c r="I7">
-        <v>0.9994549750758155</v>
+        <v>0.9983101895838795</v>
       </c>
       <c r="J7">
-        <v>0.9993436807909775</v>
+        <v>0.9994549750758157</v>
       </c>
       <c r="K7">
         <v>1.002196571635674</v>
       </c>
       <c r="L7">
-        <v>1.012158587864616</v>
+        <v>1.012158587864614</v>
       </c>
       <c r="M7">
-        <v>1.005751134327797</v>
+        <v>1.005751134327796</v>
       </c>
       <c r="N7">
-        <v>1.005751134327797</v>
+        <v>1.005751134327796</v>
       </c>
       <c r="O7">
-        <v>1.003270819413158</v>
+        <v>1.003270819413157</v>
       </c>
       <c r="P7">
-        <v>1.004566280097089</v>
+        <v>1.004566280097088</v>
       </c>
       <c r="Q7">
-        <v>1.004566280097089</v>
+        <v>1.004566280097088</v>
       </c>
       <c r="R7">
         <v>1.003973852981735</v>
@@ -913,7 +925,7 @@
         <v>1.003973852981735</v>
       </c>
       <c r="T7">
-        <v>1.001738662392584</v>
+        <v>1.001738662392583</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,55 +936,55 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.014257552818775</v>
+        <v>1.025057486786627</v>
       </c>
       <c r="D8">
-        <v>0.9964899026527956</v>
+        <v>0.9964899026527964</v>
       </c>
       <c r="E8">
-        <v>1.025057486786624</v>
+        <v>1.014257552818776</v>
       </c>
       <c r="F8">
-        <v>1.014257552818775</v>
+        <v>0.9964899026527964</v>
       </c>
       <c r="G8">
-        <v>0.9975897466643375</v>
+        <v>1.014257552818776</v>
       </c>
       <c r="H8">
-        <v>0.9976311508673557</v>
+        <v>0.9975897466643379</v>
       </c>
       <c r="I8">
+        <v>0.9976311508673553</v>
+      </c>
+      <c r="J8">
         <v>0.9971686592163647</v>
       </c>
-      <c r="J8">
-        <v>0.9964899026527956</v>
-      </c>
       <c r="K8">
-        <v>1.014257552818775</v>
+        <v>1.014257552818776</v>
       </c>
       <c r="L8">
-        <v>1.025057486786624</v>
+        <v>1.025057486786627</v>
       </c>
       <c r="M8">
-        <v>1.01077369471971</v>
+        <v>1.010773694719712</v>
       </c>
       <c r="N8">
-        <v>1.01077369471971</v>
+        <v>1.010773694719712</v>
       </c>
       <c r="O8">
-        <v>1.006392846768925</v>
+        <v>1.006392846768926</v>
       </c>
       <c r="P8">
-        <v>1.011934980752732</v>
+        <v>1.011934980752733</v>
       </c>
       <c r="Q8">
-        <v>1.011934980752732</v>
+        <v>1.011934980752733</v>
       </c>
       <c r="R8">
-        <v>1.012515623769243</v>
+        <v>1.012515623769244</v>
       </c>
       <c r="S8">
-        <v>1.012515623769243</v>
+        <v>1.012515623769244</v>
       </c>
       <c r="T8">
         <v>1.004699083167709</v>
@@ -986,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.05976855010072</v>
+        <v>1.031726546931392</v>
       </c>
       <c r="D9">
         <v>1.001232189149919</v>
       </c>
       <c r="E9">
-        <v>1.031726546931392</v>
+        <v>1.05976855010072</v>
       </c>
       <c r="F9">
+        <v>1.001232189149919</v>
+      </c>
+      <c r="G9">
         <v>1.05976855010072</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.015937954466408</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.9984040964025578</v>
       </c>
-      <c r="I9">
-        <v>0.9911883221053875</v>
-      </c>
       <c r="J9">
-        <v>1.001232189149919</v>
+        <v>0.9911883221053872</v>
       </c>
       <c r="K9">
         <v>1.05976855010072</v>
@@ -1048,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.078710177938514</v>
+        <v>1.076738863273819</v>
       </c>
       <c r="D10">
         <v>0.9850340071568779</v>
       </c>
       <c r="E10">
-        <v>1.076738863273819</v>
+        <v>1.078710177938514</v>
       </c>
       <c r="F10">
+        <v>0.9850340071568779</v>
+      </c>
+      <c r="G10">
         <v>1.078710177938514</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1.01841472493443</v>
       </c>
-      <c r="H10">
-        <v>0.9970730718799101</v>
-      </c>
       <c r="I10">
+        <v>0.9970730718799103</v>
+      </c>
+      <c r="J10">
         <v>1.005164951919189</v>
-      </c>
-      <c r="J10">
-        <v>0.9850340071568779</v>
       </c>
       <c r="K10">
         <v>1.078710177938514</v>
@@ -1110,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.259919146471686</v>
+        <v>1.200142699022627</v>
       </c>
       <c r="D11">
         <v>0.810737025674218</v>
       </c>
       <c r="E11">
-        <v>1.200142699022627</v>
+        <v>1.259919146471686</v>
       </c>
       <c r="F11">
+        <v>0.810737025674218</v>
+      </c>
+      <c r="G11">
         <v>1.259919146471686</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.9929582167165013</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.9163171049078496</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1.013808777747072</v>
-      </c>
-      <c r="J11">
-        <v>0.810737025674218</v>
       </c>
       <c r="K11">
         <v>1.259919146471686</v>
@@ -1140,10 +1152,10 @@
         <v>1.200142699022627</v>
       </c>
       <c r="M11">
-        <v>1.005439862348423</v>
+        <v>1.005439862348422</v>
       </c>
       <c r="N11">
-        <v>1.005439862348423</v>
+        <v>1.005439862348422</v>
       </c>
       <c r="O11">
         <v>0.9757322765348982</v>
@@ -1152,7 +1164,7 @@
         <v>1.09026629038951</v>
       </c>
       <c r="Q11">
-        <v>1.090266290389511</v>
+        <v>1.09026629038951</v>
       </c>
       <c r="R11">
         <v>1.132679504410054</v>
@@ -1172,55 +1184,55 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.06882009600946588</v>
+        <v>1.659197884936643</v>
       </c>
       <c r="D12">
         <v>0.03059261043852909</v>
       </c>
       <c r="E12">
-        <v>1.659197884936644</v>
+        <v>0.06882009600946588</v>
       </c>
       <c r="F12">
+        <v>0.03059261043852909</v>
+      </c>
+      <c r="G12">
         <v>0.06882009600946588</v>
       </c>
-      <c r="G12">
-        <v>0.04122312722736219</v>
-      </c>
       <c r="H12">
-        <v>1.40437412971678</v>
+        <v>0.04122312722736213</v>
       </c>
       <c r="I12">
+        <v>1.404374129716781</v>
+      </c>
+      <c r="J12">
         <v>1.090143372045717</v>
-      </c>
-      <c r="J12">
-        <v>0.03059261043852909</v>
       </c>
       <c r="K12">
         <v>0.06882009600946588</v>
       </c>
       <c r="L12">
-        <v>1.659197884936644</v>
+        <v>1.659197884936643</v>
       </c>
       <c r="M12">
-        <v>0.8448952476875864</v>
+        <v>0.8448952476875862</v>
       </c>
       <c r="N12">
-        <v>0.8448952476875864</v>
+        <v>0.8448952476875862</v>
       </c>
       <c r="O12">
         <v>1.031388208363984</v>
       </c>
       <c r="P12">
+        <v>0.5862035304615461</v>
+      </c>
+      <c r="Q12">
         <v>0.5862035304615462</v>
       </c>
-      <c r="Q12">
-        <v>0.5862035304615463</v>
-      </c>
       <c r="R12">
-        <v>0.4568576718485262</v>
+        <v>0.456857671848526</v>
       </c>
       <c r="S12">
-        <v>0.4568576718485262</v>
+        <v>0.456857671848526</v>
       </c>
       <c r="T12">
         <v>0.7157252033957496</v>
@@ -1234,28 +1246,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.999800903482981</v>
+        <v>0.1471823070372633</v>
       </c>
       <c r="D13">
         <v>2.837939515626966</v>
       </c>
       <c r="E13">
-        <v>0.1471823070372633</v>
+        <v>1.999800903482981</v>
       </c>
       <c r="F13">
+        <v>2.837939515626966</v>
+      </c>
+      <c r="G13">
         <v>1.999800903482981</v>
       </c>
-      <c r="G13">
-        <v>2.109224680354407</v>
-      </c>
       <c r="H13">
+        <v>2.109224680354409</v>
+      </c>
+      <c r="I13">
         <v>1.094889012079879</v>
       </c>
-      <c r="I13">
-        <v>0.8163691912149974</v>
-      </c>
       <c r="J13">
-        <v>2.837939515626966</v>
+        <v>0.8163691912149976</v>
       </c>
       <c r="K13">
         <v>1.999800903482981</v>
@@ -1264,10 +1276,10 @@
         <v>0.1471823070372633</v>
       </c>
       <c r="M13">
-        <v>1.492560911332114</v>
+        <v>1.492560911332115</v>
       </c>
       <c r="N13">
-        <v>1.492560911332114</v>
+        <v>1.492560911332115</v>
       </c>
       <c r="O13">
         <v>1.360003611581369</v>
@@ -1285,7 +1297,7 @@
         <v>1.746180907407548</v>
       </c>
       <c r="T13">
-        <v>1.500900934966082</v>
+        <v>1.500900934966083</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,34 +1308,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.4599827724352962</v>
+        <v>0.7819213021860811</v>
       </c>
       <c r="D14">
-        <v>0.7263006195540438</v>
+        <v>0.7263006195540443</v>
       </c>
       <c r="E14">
-        <v>0.7819213021860815</v>
+        <v>0.4599827724352957</v>
       </c>
       <c r="F14">
-        <v>0.4599827724352962</v>
+        <v>0.7263006195540443</v>
       </c>
       <c r="G14">
+        <v>0.4599827724352957</v>
+      </c>
+      <c r="H14">
         <v>2.048623797531584</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.271455114279812</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1.037282074883116</v>
       </c>
-      <c r="J14">
-        <v>0.7263006195540438</v>
-      </c>
       <c r="K14">
-        <v>0.4599827724352962</v>
+        <v>0.4599827724352957</v>
       </c>
       <c r="L14">
-        <v>0.7819213021860815</v>
+        <v>0.7819213021860811</v>
       </c>
       <c r="M14">
         <v>0.7541109608700627</v>
@@ -1332,22 +1344,22 @@
         <v>0.7541109608700627</v>
       </c>
       <c r="O14">
-        <v>0.9265590120066459</v>
+        <v>0.9265590120066457</v>
       </c>
       <c r="P14">
-        <v>0.6560682313918073</v>
+        <v>0.656068231391807</v>
       </c>
       <c r="Q14">
-        <v>0.6560682313918073</v>
+        <v>0.656068231391807</v>
       </c>
       <c r="R14">
-        <v>0.6070468666526795</v>
+        <v>0.6070468666526793</v>
       </c>
       <c r="S14">
-        <v>0.6070468666526795</v>
+        <v>0.6070468666526793</v>
       </c>
       <c r="T14">
-        <v>1.054260946811656</v>
+        <v>1.054260946811655</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.4843167545547961</v>
+      </c>
+      <c r="D15">
+        <v>0.0009743324530289159</v>
+      </c>
+      <c r="E15">
         <v>0.4593586118978514</v>
       </c>
-      <c r="D15">
-        <v>0.0009743324530289156</v>
-      </c>
-      <c r="E15">
-        <v>0.4843167545547961</v>
-      </c>
       <c r="F15">
+        <v>0.0009743324530289159</v>
+      </c>
+      <c r="G15">
         <v>0.4593586118978514</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.1189499464817591</v>
       </c>
-      <c r="H15">
-        <v>0.9058599653321883</v>
-      </c>
       <c r="I15">
+        <v>0.905859965332188</v>
+      </c>
+      <c r="J15">
         <v>0.6152665044859895</v>
-      </c>
-      <c r="J15">
-        <v>0.0009743324530289156</v>
       </c>
       <c r="K15">
         <v>0.4593586118978514</v>
@@ -1394,22 +1406,22 @@
         <v>0.2426455435039125</v>
       </c>
       <c r="O15">
-        <v>0.4637170174466711</v>
+        <v>0.463717017446671</v>
       </c>
       <c r="P15">
-        <v>0.3148832329685588</v>
+        <v>0.3148832329685589</v>
       </c>
       <c r="Q15">
-        <v>0.3148832329685588</v>
+        <v>0.3148832329685589</v>
       </c>
       <c r="R15">
-        <v>0.3510020777008819</v>
+        <v>0.351002077700882</v>
       </c>
       <c r="S15">
-        <v>0.3510020777008819</v>
+        <v>0.351002077700882</v>
       </c>
       <c r="T15">
-        <v>0.4307876858676022</v>
+        <v>0.4307876858676021</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.992550253994801</v>
+        <v>0.6211867673263761</v>
       </c>
       <c r="D16">
-        <v>1.000968960067055</v>
+        <v>0.2088756008746336</v>
       </c>
       <c r="E16">
-        <v>1.013183099933516</v>
+        <v>1.575602521679741</v>
       </c>
       <c r="F16">
-        <v>0.992550253994801</v>
+        <v>0.2088756008746336</v>
       </c>
       <c r="G16">
-        <v>1.020168195904648</v>
+        <v>1.575602521679741</v>
       </c>
       <c r="H16">
-        <v>1.000002400654316</v>
+        <v>2.276283664443216</v>
       </c>
       <c r="I16">
-        <v>0.9951391432263118</v>
+        <v>0.5135930725463815</v>
       </c>
       <c r="J16">
-        <v>1.000968960067055</v>
+        <v>1.172872274067887</v>
       </c>
       <c r="K16">
-        <v>0.992550253994801</v>
+        <v>1.575602521679741</v>
       </c>
       <c r="L16">
-        <v>1.013183099933516</v>
+        <v>0.6211867673263761</v>
       </c>
       <c r="M16">
-        <v>1.007076030000286</v>
+        <v>0.4150311841005049</v>
       </c>
       <c r="N16">
-        <v>1.007076030000286</v>
+        <v>0.4150311841005049</v>
       </c>
       <c r="O16">
-        <v>1.004718153551629</v>
+        <v>0.4478851469157971</v>
       </c>
       <c r="P16">
-        <v>1.002234104665124</v>
+        <v>0.8018882966269169</v>
       </c>
       <c r="Q16">
-        <v>1.002234104665124</v>
+        <v>0.8018882966269169</v>
       </c>
       <c r="R16">
-        <v>0.9998131419975433</v>
+        <v>0.9953168528901228</v>
       </c>
       <c r="S16">
-        <v>0.9998131419975433</v>
+        <v>0.9953168528901228</v>
       </c>
       <c r="T16">
-        <v>1.003668675630108</v>
+        <v>1.061402316823039</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.03121118644751</v>
+        <v>0.9687260920199238</v>
       </c>
       <c r="D17">
-        <v>1.003333566632971</v>
+        <v>0.4161920930006792</v>
       </c>
       <c r="E17">
-        <v>1.016636027902822</v>
+        <v>1.356209972525365</v>
       </c>
       <c r="F17">
-        <v>1.03121118644751</v>
+        <v>0.4161920930006792</v>
       </c>
       <c r="G17">
-        <v>0.9391010727329827</v>
+        <v>1.356209972525365</v>
       </c>
       <c r="H17">
-        <v>1.006318434082489</v>
+        <v>1.85579676626947</v>
       </c>
       <c r="I17">
-        <v>1.008538821404181</v>
+        <v>0.6316366775484792</v>
       </c>
       <c r="J17">
-        <v>1.003333566632971</v>
+        <v>1.132474234599685</v>
       </c>
       <c r="K17">
-        <v>1.03121118644751</v>
+        <v>1.356209972525365</v>
       </c>
       <c r="L17">
-        <v>1.016636027902822</v>
+        <v>0.9687260920199238</v>
       </c>
       <c r="M17">
-        <v>1.009984797267896</v>
+        <v>0.6924590925103015</v>
       </c>
       <c r="N17">
-        <v>1.009984797267896</v>
+        <v>0.6924590925103015</v>
       </c>
       <c r="O17">
-        <v>1.008762676206094</v>
+        <v>0.672184954189694</v>
       </c>
       <c r="P17">
-        <v>1.017060260327768</v>
+        <v>0.9137093858486559</v>
       </c>
       <c r="Q17">
-        <v>1.017060260327768</v>
+        <v>0.9137093858486559</v>
       </c>
       <c r="R17">
-        <v>1.020597991857703</v>
+        <v>1.024334532517833</v>
       </c>
       <c r="S17">
-        <v>1.020597991857703</v>
+        <v>1.024334532517833</v>
       </c>
       <c r="T17">
-        <v>1.000856518200493</v>
+        <v>1.060172639327267</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.184395662269359</v>
+        <v>1.648517840524428</v>
       </c>
       <c r="D18">
-        <v>1.011757208515753</v>
+        <v>0.8414475318184739</v>
       </c>
       <c r="E18">
-        <v>0.9822846942177368</v>
+        <v>0.9501871663094348</v>
       </c>
       <c r="F18">
-        <v>1.184395662269359</v>
+        <v>0.8414475318184739</v>
       </c>
       <c r="G18">
-        <v>1.04797996533994</v>
+        <v>0.9501871663094348</v>
       </c>
       <c r="H18">
-        <v>0.9624595493987876</v>
+        <v>1.029626235914345</v>
       </c>
       <c r="I18">
-        <v>0.9782552853948203</v>
+        <v>0.869511203091709</v>
       </c>
       <c r="J18">
-        <v>1.011757208515753</v>
+        <v>1.060561245618606</v>
       </c>
       <c r="K18">
-        <v>1.184395662269359</v>
+        <v>0.9501871663094348</v>
       </c>
       <c r="L18">
-        <v>0.9822846942177368</v>
+        <v>1.648517840524428</v>
       </c>
       <c r="M18">
-        <v>0.9970209513667451</v>
+        <v>1.244982686171451</v>
       </c>
       <c r="N18">
-        <v>0.9970209513667451</v>
+        <v>1.244982686171451</v>
       </c>
       <c r="O18">
-        <v>0.9855004840440925</v>
+        <v>1.11982552514487</v>
       </c>
       <c r="P18">
-        <v>1.059479188334283</v>
+        <v>1.146717512884112</v>
       </c>
       <c r="Q18">
-        <v>1.059479188334283</v>
+        <v>1.146717512884112</v>
       </c>
       <c r="R18">
-        <v>1.090708306818052</v>
+        <v>1.097584926240443</v>
       </c>
       <c r="S18">
-        <v>1.090708306818052</v>
+        <v>1.097584926240443</v>
       </c>
       <c r="T18">
-        <v>1.0278553941894</v>
+        <v>1.066641870546166</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>2.037741418745653</v>
+      </c>
+      <c r="D19">
+        <v>0.6264363563640529</v>
+      </c>
+      <c r="E19">
+        <v>0.8410300854496349</v>
+      </c>
+      <c r="F19">
+        <v>0.6264363563640529</v>
+      </c>
+      <c r="G19">
+        <v>0.8410300854496349</v>
+      </c>
+      <c r="H19">
+        <v>0.884102420517121</v>
+      </c>
+      <c r="I19">
+        <v>0.957819393104825</v>
+      </c>
+      <c r="J19">
+        <v>1.085470694092227</v>
+      </c>
+      <c r="K19">
+        <v>0.8410300854496349</v>
+      </c>
+      <c r="L19">
+        <v>2.037741418745653</v>
+      </c>
+      <c r="M19">
+        <v>1.332088887554853</v>
+      </c>
+      <c r="N19">
+        <v>1.332088887554853</v>
+      </c>
+      <c r="O19">
+        <v>1.207332389404844</v>
+      </c>
+      <c r="P19">
+        <v>1.168402620186447</v>
+      </c>
+      <c r="Q19">
+        <v>1.168402620186447</v>
+      </c>
+      <c r="R19">
+        <v>1.086559486502244</v>
+      </c>
+      <c r="S19">
+        <v>1.086559486502244</v>
+      </c>
+      <c r="T19">
+        <v>1.072100061378919</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.013183099933517</v>
+      </c>
+      <c r="D20">
+        <v>1.000968960067054</v>
+      </c>
+      <c r="E20">
+        <v>0.9925502539948015</v>
+      </c>
+      <c r="F20">
+        <v>1.000968960067054</v>
+      </c>
+      <c r="G20">
+        <v>0.9925502539948015</v>
+      </c>
+      <c r="H20">
+        <v>1.020168195904649</v>
+      </c>
+      <c r="I20">
+        <v>1.000002400654317</v>
+      </c>
+      <c r="J20">
+        <v>0.9951391432263114</v>
+      </c>
+      <c r="K20">
+        <v>0.9925502539948015</v>
+      </c>
+      <c r="L20">
+        <v>1.013183099933517</v>
+      </c>
+      <c r="M20">
+        <v>1.007076030000285</v>
+      </c>
+      <c r="N20">
+        <v>1.007076030000285</v>
+      </c>
+      <c r="O20">
+        <v>1.004718153551629</v>
+      </c>
+      <c r="P20">
+        <v>1.002234104665124</v>
+      </c>
+      <c r="Q20">
+        <v>1.002234104665124</v>
+      </c>
+      <c r="R20">
+        <v>0.9998131419975436</v>
+      </c>
+      <c r="S20">
+        <v>0.9998131419975436</v>
+      </c>
+      <c r="T20">
+        <v>1.003668675630108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.016636027902821</v>
+      </c>
+      <c r="D21">
+        <v>1.00333356663297</v>
+      </c>
+      <c r="E21">
+        <v>1.03121118644751</v>
+      </c>
+      <c r="F21">
+        <v>1.00333356663297</v>
+      </c>
+      <c r="G21">
+        <v>1.03121118644751</v>
+      </c>
+      <c r="H21">
+        <v>0.9391010727329837</v>
+      </c>
+      <c r="I21">
+        <v>1.006318434082488</v>
+      </c>
+      <c r="J21">
+        <v>1.008538821404181</v>
+      </c>
+      <c r="K21">
+        <v>1.03121118644751</v>
+      </c>
+      <c r="L21">
+        <v>1.016636027902821</v>
+      </c>
+      <c r="M21">
+        <v>1.009984797267896</v>
+      </c>
+      <c r="N21">
+        <v>1.009984797267896</v>
+      </c>
+      <c r="O21">
+        <v>1.008762676206093</v>
+      </c>
+      <c r="P21">
+        <v>1.017060260327767</v>
+      </c>
+      <c r="Q21">
+        <v>1.017060260327767</v>
+      </c>
+      <c r="R21">
+        <v>1.020597991857703</v>
+      </c>
+      <c r="S21">
+        <v>1.020597991857703</v>
+      </c>
+      <c r="T21">
+        <v>1.000856518200492</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.982284694217736</v>
+      </c>
+      <c r="D22">
+        <v>1.011757208515752</v>
+      </c>
+      <c r="E22">
+        <v>1.184395662269359</v>
+      </c>
+      <c r="F22">
+        <v>1.011757208515752</v>
+      </c>
+      <c r="G22">
+        <v>1.184395662269359</v>
+      </c>
+      <c r="H22">
+        <v>1.047979965339943</v>
+      </c>
+      <c r="I22">
+        <v>0.9624595493987876</v>
+      </c>
+      <c r="J22">
+        <v>0.9782552853948214</v>
+      </c>
+      <c r="K22">
+        <v>1.184395662269359</v>
+      </c>
+      <c r="L22">
+        <v>0.982284694217736</v>
+      </c>
+      <c r="M22">
+        <v>0.9970209513667441</v>
+      </c>
+      <c r="N22">
+        <v>0.9970209513667441</v>
+      </c>
+      <c r="O22">
+        <v>0.985500484044092</v>
+      </c>
+      <c r="P22">
+        <v>1.059479188334282</v>
+      </c>
+      <c r="Q22">
+        <v>1.059479188334282</v>
+      </c>
+      <c r="R22">
+        <v>1.090708306818052</v>
+      </c>
+      <c r="S22">
+        <v>1.090708306818052</v>
+      </c>
+      <c r="T22">
+        <v>1.0278553941894</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.052223374503082</v>
+      </c>
+      <c r="D23">
+        <v>0.9132214845478036</v>
+      </c>
+      <c r="E23">
         <v>1.155993451257065</v>
       </c>
-      <c r="D19">
+      <c r="F23">
         <v>0.9132214845478036</v>
       </c>
-      <c r="E19">
+      <c r="G23">
+        <v>1.155993451257065</v>
+      </c>
+      <c r="H23">
+        <v>1.055858053697588</v>
+      </c>
+      <c r="I23">
+        <v>0.8811897003167057</v>
+      </c>
+      <c r="J23">
+        <v>0.9872646853254073</v>
+      </c>
+      <c r="K23">
+        <v>1.155993451257065</v>
+      </c>
+      <c r="L23">
         <v>1.052223374503082</v>
       </c>
-      <c r="F19">
-        <v>1.155993451257065</v>
-      </c>
-      <c r="G19">
-        <v>1.055858053697589</v>
-      </c>
-      <c r="H19">
-        <v>0.8811897003167057</v>
-      </c>
-      <c r="I19">
-        <v>0.9872646853254077</v>
-      </c>
-      <c r="J19">
-        <v>0.9132214845478036</v>
-      </c>
-      <c r="K19">
-        <v>1.155993451257065</v>
-      </c>
-      <c r="L19">
-        <v>1.052223374503082</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9827224295254429</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9827224295254429</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9488781864558637</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.040479436769317</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.040479436769317</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.069357940391254</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.069357940391254</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.007625124941275</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW05.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9855641510551513</v>
+        <v>1.975485615785543</v>
       </c>
       <c r="D3">
-        <v>0.9554655739681941</v>
+        <v>0.781402356743381</v>
       </c>
       <c r="E3">
-        <v>1.034952805342675</v>
+        <v>0.9571016004522461</v>
       </c>
       <c r="F3">
-        <v>0.9554655739681941</v>
+        <v>0.781402356743381</v>
       </c>
       <c r="G3">
-        <v>1.034952805342675</v>
+        <v>0.9571016004522461</v>
       </c>
       <c r="H3">
-        <v>1.088827300761225</v>
+        <v>1.015729459336659</v>
       </c>
       <c r="I3">
-        <v>0.9718601434917811</v>
+        <v>0.8252165202205366</v>
       </c>
       <c r="J3">
-        <v>1.006597016612174</v>
+        <v>1.065462042297899</v>
       </c>
       <c r="K3">
-        <v>1.034952805342675</v>
+        <v>0.9571016004522461</v>
       </c>
       <c r="L3">
-        <v>0.9855641510551513</v>
+        <v>1.975485615785543</v>
       </c>
       <c r="M3">
-        <v>0.9705148625116726</v>
+        <v>1.378443986264462</v>
       </c>
       <c r="N3">
-        <v>0.9705148625116726</v>
+        <v>1.378443986264462</v>
       </c>
       <c r="O3">
-        <v>0.9709632895050421</v>
+        <v>1.194034830916487</v>
       </c>
       <c r="P3">
-        <v>0.9919941767886734</v>
+        <v>1.237996524327057</v>
       </c>
       <c r="Q3">
-        <v>0.9919941767886734</v>
+        <v>1.237996524327057</v>
       </c>
       <c r="R3">
-        <v>1.002733833927174</v>
+        <v>1.167772793358354</v>
       </c>
       <c r="S3">
-        <v>1.002733833927174</v>
+        <v>1.167772793358354</v>
       </c>
       <c r="T3">
-        <v>1.0072111652052</v>
+        <v>1.103399599139377</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9828423388664312</v>
+        <v>1.805546918348609</v>
       </c>
       <c r="D4">
-        <v>0.99296287225667</v>
+        <v>0.8085728625453719</v>
       </c>
       <c r="E4">
-        <v>1.07217271135824</v>
+        <v>0.9214660368768023</v>
       </c>
       <c r="F4">
-        <v>0.99296287225667</v>
+        <v>0.8085728625453719</v>
       </c>
       <c r="G4">
-        <v>1.07217271135824</v>
+        <v>0.9214660368768023</v>
       </c>
       <c r="H4">
-        <v>1.172816940723907</v>
+        <v>1.014645258076879</v>
       </c>
       <c r="I4">
-        <v>0.9410090113137383</v>
+        <v>0.8484926508654319</v>
       </c>
       <c r="J4">
-        <v>1.009725142191717</v>
+        <v>1.059937138169386</v>
       </c>
       <c r="K4">
-        <v>1.07217271135824</v>
+        <v>0.9214660368768023</v>
       </c>
       <c r="L4">
-        <v>0.9828423388664312</v>
+        <v>1.805546918348609</v>
       </c>
       <c r="M4">
-        <v>0.9879026055615506</v>
+        <v>1.307059890446991</v>
       </c>
       <c r="N4">
-        <v>0.9879026055615506</v>
+        <v>1.307059890446991</v>
       </c>
       <c r="O4">
-        <v>0.9722714074789466</v>
+        <v>1.154204143919804</v>
       </c>
       <c r="P4">
-        <v>1.015992640827114</v>
+        <v>1.178528605923594</v>
       </c>
       <c r="Q4">
-        <v>1.015992640827114</v>
+        <v>1.178528605923594</v>
       </c>
       <c r="R4">
-        <v>1.030037658459895</v>
+        <v>1.114262963661896</v>
       </c>
       <c r="S4">
-        <v>1.030037658459895</v>
+        <v>1.114262963661896</v>
       </c>
       <c r="T4">
-        <v>1.028588169451784</v>
+        <v>1.076443477480413</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8298310633807513</v>
+        <v>2.371894180999453</v>
       </c>
       <c r="D5">
-        <v>0.6866623577106727</v>
+        <v>0.7030492743242704</v>
       </c>
       <c r="E5">
-        <v>1.55072942171161</v>
+        <v>1.073096903483061</v>
       </c>
       <c r="F5">
-        <v>0.6866623577106727</v>
+        <v>0.7030492743242704</v>
       </c>
       <c r="G5">
-        <v>1.55072942171161</v>
+        <v>1.073096903483061</v>
       </c>
       <c r="H5">
-        <v>1.204487487202061</v>
+        <v>1.066290278020195</v>
       </c>
       <c r="I5">
-        <v>0.9054890614091666</v>
+        <v>0.7835914624056274</v>
       </c>
       <c r="J5">
-        <v>1.160684705532755</v>
+        <v>1.118518302100809</v>
       </c>
       <c r="K5">
-        <v>1.55072942171161</v>
+        <v>1.073096903483061</v>
       </c>
       <c r="L5">
-        <v>0.8298310633807513</v>
+        <v>2.371894180999453</v>
       </c>
       <c r="M5">
-        <v>0.758246710545712</v>
+        <v>1.537471727661862</v>
       </c>
       <c r="N5">
-        <v>0.758246710545712</v>
+        <v>1.537471727661862</v>
       </c>
       <c r="O5">
-        <v>0.8073274941668634</v>
+        <v>1.286178305909784</v>
       </c>
       <c r="P5">
-        <v>1.022407614267678</v>
+        <v>1.382680119602261</v>
       </c>
       <c r="Q5">
-        <v>1.022407614267678</v>
+        <v>1.382680119602261</v>
       </c>
       <c r="R5">
-        <v>1.154488066128661</v>
+        <v>1.305284315572461</v>
       </c>
       <c r="S5">
-        <v>1.154488066128661</v>
+        <v>1.305284315572461</v>
       </c>
       <c r="T5">
-        <v>1.056314016157836</v>
+        <v>1.186073400222236</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8801269628989373</v>
+        <v>3.049298894058416</v>
       </c>
       <c r="D6">
-        <v>2.107395498622743</v>
+        <v>0.4477029859862272</v>
       </c>
       <c r="E6">
-        <v>1.287836394245102</v>
+        <v>1.588406573456703</v>
       </c>
       <c r="F6">
-        <v>2.107395498622743</v>
+        <v>0.4477029859862272</v>
       </c>
       <c r="G6">
-        <v>1.287836394245102</v>
+        <v>1.588406573456703</v>
       </c>
       <c r="H6">
-        <v>2.648071871987566</v>
+        <v>1.194160629129545</v>
       </c>
       <c r="I6">
-        <v>0.7900946376189804</v>
+        <v>0.7160439966801133</v>
       </c>
       <c r="J6">
-        <v>0.9538348561730109</v>
+        <v>1.018405925447727</v>
       </c>
       <c r="K6">
-        <v>1.287836394245102</v>
+        <v>1.588406573456703</v>
       </c>
       <c r="L6">
-        <v>0.8801269628989373</v>
+        <v>3.049298894058416</v>
       </c>
       <c r="M6">
-        <v>1.49376123076084</v>
+        <v>1.748500940022322</v>
       </c>
       <c r="N6">
-        <v>1.49376123076084</v>
+        <v>1.748500940022322</v>
       </c>
       <c r="O6">
-        <v>1.259205699713553</v>
+        <v>1.404348625574919</v>
       </c>
       <c r="P6">
-        <v>1.425119618588927</v>
+        <v>1.695136151167115</v>
       </c>
       <c r="Q6">
-        <v>1.425119618588927</v>
+        <v>1.695136151167115</v>
       </c>
       <c r="R6">
-        <v>1.390798812502971</v>
+        <v>1.668453756739512</v>
       </c>
       <c r="S6">
-        <v>1.390798812502971</v>
+        <v>1.668453756739512</v>
       </c>
       <c r="T6">
-        <v>1.44456003692439</v>
+        <v>1.335669834126455</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.012158587864614</v>
+        <v>2.213092955094815</v>
       </c>
       <c r="D7">
-        <v>0.9993436807909769</v>
+        <v>-0.001099973673576744</v>
       </c>
       <c r="E7">
-        <v>1.002196571635674</v>
+        <v>5.752579603497107</v>
       </c>
       <c r="F7">
-        <v>0.9993436807909769</v>
+        <v>-0.001099973673576744</v>
       </c>
       <c r="G7">
-        <v>1.002196571635674</v>
+        <v>5.752579603497107</v>
       </c>
       <c r="H7">
-        <v>0.9989679694045387</v>
+        <v>0.001124302174665771</v>
       </c>
       <c r="I7">
-        <v>0.9983101895838795</v>
+        <v>-0.0003802185409146855</v>
       </c>
       <c r="J7">
-        <v>0.9994549750758157</v>
+        <v>2.742444239262177</v>
       </c>
       <c r="K7">
-        <v>1.002196571635674</v>
+        <v>5.752579603497107</v>
       </c>
       <c r="L7">
-        <v>1.012158587864614</v>
+        <v>2.213092955094815</v>
       </c>
       <c r="M7">
-        <v>1.005751134327796</v>
+        <v>1.105996490710619</v>
       </c>
       <c r="N7">
-        <v>1.005751134327796</v>
+        <v>1.105996490710619</v>
       </c>
       <c r="O7">
-        <v>1.003270819413157</v>
+        <v>0.7372042542934413</v>
       </c>
       <c r="P7">
-        <v>1.004566280097088</v>
+        <v>2.654857528306115</v>
       </c>
       <c r="Q7">
-        <v>1.004566280097088</v>
+        <v>2.654857528306116</v>
       </c>
       <c r="R7">
-        <v>1.003973852981735</v>
+        <v>3.429288047103864</v>
       </c>
       <c r="S7">
-        <v>1.003973852981735</v>
+        <v>3.429288047103864</v>
       </c>
       <c r="T7">
-        <v>1.001738662392583</v>
+        <v>1.784626817969046</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.025057486786627</v>
+        <v>2.247415102464914</v>
       </c>
       <c r="D8">
-        <v>0.9964899026527964</v>
+        <v>-0.001104229923762564</v>
       </c>
       <c r="E8">
-        <v>1.014257552818776</v>
+        <v>5.775057878819809</v>
       </c>
       <c r="F8">
-        <v>0.9964899026527964</v>
+        <v>-0.001104229923762564</v>
       </c>
       <c r="G8">
-        <v>1.014257552818776</v>
+        <v>5.775057878819809</v>
       </c>
       <c r="H8">
-        <v>0.9975897466643379</v>
+        <v>0.001125575848913384</v>
       </c>
       <c r="I8">
-        <v>0.9976311508673553</v>
+        <v>-0.0003760858631977399</v>
       </c>
       <c r="J8">
-        <v>0.9971686592163647</v>
+        <v>2.732214011179539</v>
       </c>
       <c r="K8">
-        <v>1.014257552818776</v>
+        <v>5.775057878819809</v>
       </c>
       <c r="L8">
-        <v>1.025057486786627</v>
+        <v>2.247415102464914</v>
       </c>
       <c r="M8">
-        <v>1.010773694719712</v>
+        <v>1.123155436270576</v>
       </c>
       <c r="N8">
-        <v>1.010773694719712</v>
+        <v>1.123155436270576</v>
       </c>
       <c r="O8">
-        <v>1.006392846768926</v>
+        <v>0.7486449288926513</v>
       </c>
       <c r="P8">
-        <v>1.011934980752733</v>
+        <v>2.673789583786987</v>
       </c>
       <c r="Q8">
-        <v>1.011934980752733</v>
+        <v>2.673789583786987</v>
       </c>
       <c r="R8">
-        <v>1.012515623769244</v>
+        <v>3.449106657545192</v>
       </c>
       <c r="S8">
-        <v>1.012515623769244</v>
+        <v>3.449106657545192</v>
       </c>
       <c r="T8">
-        <v>1.004699083167709</v>
+        <v>1.792388708754369</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.031726546931392</v>
+        <v>2.302273802302415</v>
       </c>
       <c r="D9">
-        <v>1.001232189149919</v>
+        <v>-0.00112404743186825</v>
       </c>
       <c r="E9">
-        <v>1.05976855010072</v>
+        <v>5.75662079371085</v>
       </c>
       <c r="F9">
-        <v>1.001232189149919</v>
+        <v>-0.00112404743186825</v>
       </c>
       <c r="G9">
-        <v>1.05976855010072</v>
+        <v>5.75662079371085</v>
       </c>
       <c r="H9">
-        <v>1.015937954466408</v>
+        <v>0.001149013563546635</v>
       </c>
       <c r="I9">
-        <v>0.9984040964025578</v>
+        <v>-0.0003683499616978358</v>
       </c>
       <c r="J9">
-        <v>0.9911883221053872</v>
+        <v>2.721758536114871</v>
       </c>
       <c r="K9">
-        <v>1.05976855010072</v>
+        <v>5.75662079371085</v>
       </c>
       <c r="L9">
-        <v>1.031726546931392</v>
+        <v>2.302273802302415</v>
       </c>
       <c r="M9">
-        <v>1.016479368040656</v>
+        <v>1.150574877435273</v>
       </c>
       <c r="N9">
-        <v>1.016479368040656</v>
+        <v>1.150574877435273</v>
       </c>
       <c r="O9">
-        <v>1.010454277494623</v>
+        <v>0.7669271349696163</v>
       </c>
       <c r="P9">
-        <v>1.030909095394011</v>
+        <v>2.685923516193799</v>
       </c>
       <c r="Q9">
-        <v>1.030909095394011</v>
+        <v>2.685923516193799</v>
       </c>
       <c r="R9">
-        <v>1.038123959070688</v>
+        <v>3.453597835573062</v>
       </c>
       <c r="S9">
-        <v>1.038123959070688</v>
+        <v>3.453597835573062</v>
       </c>
       <c r="T9">
-        <v>1.016376276526064</v>
+        <v>1.796718291383019</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.076738863273819</v>
+        <v>2.389515110330882</v>
       </c>
       <c r="D10">
-        <v>0.9850340071568779</v>
+        <v>-0.001121897628277304</v>
       </c>
       <c r="E10">
-        <v>1.078710177938514</v>
+        <v>5.940131345718261</v>
       </c>
       <c r="F10">
-        <v>0.9850340071568779</v>
+        <v>-0.001121897628277304</v>
       </c>
       <c r="G10">
-        <v>1.078710177938514</v>
+        <v>5.940131345718261</v>
       </c>
       <c r="H10">
-        <v>1.01841472493443</v>
+        <v>0.001167546184247326</v>
       </c>
       <c r="I10">
-        <v>0.9970730718799103</v>
+        <v>-0.0003281038067934837</v>
       </c>
       <c r="J10">
-        <v>1.005164951919189</v>
+        <v>2.672298777555127</v>
       </c>
       <c r="K10">
-        <v>1.078710177938514</v>
+        <v>5.940131345718261</v>
       </c>
       <c r="L10">
-        <v>1.076738863273819</v>
+        <v>2.389515110330882</v>
       </c>
       <c r="M10">
-        <v>1.030886435215348</v>
+        <v>1.194196606351303</v>
       </c>
       <c r="N10">
-        <v>1.030886435215348</v>
+        <v>1.194196606351303</v>
       </c>
       <c r="O10">
-        <v>1.019615314103536</v>
+        <v>0.7960217029652705</v>
       </c>
       <c r="P10">
-        <v>1.046827682789737</v>
+        <v>2.776174852806955</v>
       </c>
       <c r="Q10">
-        <v>1.046827682789737</v>
+        <v>2.776174852806955</v>
       </c>
       <c r="R10">
-        <v>1.054798306576931</v>
+        <v>3.567163976034782</v>
       </c>
       <c r="S10">
-        <v>1.054798306576931</v>
+        <v>3.567163976034782</v>
       </c>
       <c r="T10">
-        <v>1.02685596618379</v>
+        <v>1.833610463058908</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.200142699022627</v>
+        <v>0.9749815713960986</v>
       </c>
       <c r="D11">
-        <v>0.810737025674218</v>
+        <v>0.9499231926869247</v>
       </c>
       <c r="E11">
-        <v>1.259919146471686</v>
+        <v>1.051354417830963</v>
       </c>
       <c r="F11">
-        <v>0.810737025674218</v>
+        <v>0.9499231926869247</v>
       </c>
       <c r="G11">
-        <v>1.259919146471686</v>
+        <v>1.051354417830963</v>
       </c>
       <c r="H11">
-        <v>0.9929582167165013</v>
+        <v>1.062971090777251</v>
       </c>
       <c r="I11">
-        <v>0.9163171049078496</v>
+        <v>0.9691830146422652</v>
       </c>
       <c r="J11">
-        <v>1.013808777747072</v>
+        <v>1.012773836199699</v>
       </c>
       <c r="K11">
-        <v>1.259919146471686</v>
+        <v>1.051354417830963</v>
       </c>
       <c r="L11">
-        <v>1.200142699022627</v>
+        <v>0.9749815713960986</v>
       </c>
       <c r="M11">
-        <v>1.005439862348422</v>
+        <v>0.9624523820415116</v>
       </c>
       <c r="N11">
-        <v>1.005439862348422</v>
+        <v>0.9624523820415116</v>
       </c>
       <c r="O11">
-        <v>0.9757322765348982</v>
+        <v>0.9646959262417628</v>
       </c>
       <c r="P11">
-        <v>1.09026629038951</v>
+        <v>0.9920863939713289</v>
       </c>
       <c r="Q11">
-        <v>1.09026629038951</v>
+        <v>0.9920863939713288</v>
       </c>
       <c r="R11">
-        <v>1.132679504410054</v>
+        <v>1.006903399936237</v>
       </c>
       <c r="S11">
-        <v>1.132679504410054</v>
+        <v>1.006903399936237</v>
       </c>
       <c r="T11">
-        <v>1.032313828423326</v>
+        <v>1.003531187255534</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.659197884936643</v>
+        <v>1.000537930581839</v>
       </c>
       <c r="D12">
-        <v>0.03059261043852909</v>
+        <v>0.9749485150916314</v>
       </c>
       <c r="E12">
-        <v>0.06882009600946588</v>
+        <v>1.028037268041607</v>
       </c>
       <c r="F12">
-        <v>0.03059261043852909</v>
+        <v>0.9749485150916314</v>
       </c>
       <c r="G12">
-        <v>0.06882009600946588</v>
+        <v>1.028037268041607</v>
       </c>
       <c r="H12">
-        <v>0.04122312722736213</v>
+        <v>1.031156889611321</v>
       </c>
       <c r="I12">
-        <v>1.404374129716781</v>
+        <v>0.981780550260826</v>
       </c>
       <c r="J12">
-        <v>1.090143372045717</v>
+        <v>1.014464559176809</v>
       </c>
       <c r="K12">
-        <v>0.06882009600946588</v>
+        <v>1.028037268041607</v>
       </c>
       <c r="L12">
-        <v>1.659197884936643</v>
+        <v>1.000537930581839</v>
       </c>
       <c r="M12">
-        <v>0.8448952476875862</v>
+        <v>0.9877432228367351</v>
       </c>
       <c r="N12">
-        <v>0.8448952476875862</v>
+        <v>0.9877432228367351</v>
       </c>
       <c r="O12">
-        <v>1.031388208363984</v>
+        <v>0.985755665311432</v>
       </c>
       <c r="P12">
-        <v>0.5862035304615461</v>
+        <v>1.001174571238359</v>
       </c>
       <c r="Q12">
-        <v>0.5862035304615462</v>
+        <v>1.001174571238359</v>
       </c>
       <c r="R12">
-        <v>0.456857671848526</v>
+        <v>1.007890245439171</v>
       </c>
       <c r="S12">
-        <v>0.456857671848526</v>
+        <v>1.007890245439171</v>
       </c>
       <c r="T12">
-        <v>0.7157252033957496</v>
+        <v>1.005154285460672</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.1471823070372633</v>
+        <v>0.9972599167268539</v>
       </c>
       <c r="D13">
-        <v>2.837939515626966</v>
+        <v>0.8562809977067625</v>
       </c>
       <c r="E13">
-        <v>1.999800903482981</v>
+        <v>1.107779587899665</v>
       </c>
       <c r="F13">
-        <v>2.837939515626966</v>
+        <v>0.8562809977067625</v>
       </c>
       <c r="G13">
-        <v>1.999800903482981</v>
+        <v>1.107779587899665</v>
       </c>
       <c r="H13">
-        <v>2.109224680354409</v>
+        <v>1.17434458920071</v>
       </c>
       <c r="I13">
-        <v>1.094889012079879</v>
+        <v>0.951966975717597</v>
       </c>
       <c r="J13">
-        <v>0.8163691912149976</v>
+        <v>1.122429838126523</v>
       </c>
       <c r="K13">
-        <v>1.999800903482981</v>
+        <v>1.107779587899665</v>
       </c>
       <c r="L13">
-        <v>0.1471823070372633</v>
+        <v>0.9972599167268539</v>
       </c>
       <c r="M13">
-        <v>1.492560911332115</v>
+        <v>0.9267704572168082</v>
       </c>
       <c r="N13">
-        <v>1.492560911332115</v>
+        <v>0.9267704572168082</v>
       </c>
       <c r="O13">
-        <v>1.360003611581369</v>
+        <v>0.9351692967170712</v>
       </c>
       <c r="P13">
-        <v>1.661640908715737</v>
+        <v>0.9871068341110938</v>
       </c>
       <c r="Q13">
-        <v>1.661640908715737</v>
+        <v>0.9871068341110938</v>
       </c>
       <c r="R13">
-        <v>1.746180907407548</v>
+        <v>1.017275022558237</v>
       </c>
       <c r="S13">
-        <v>1.746180907407548</v>
+        <v>1.017275022558237</v>
       </c>
       <c r="T13">
-        <v>1.500900934966083</v>
+        <v>1.035010317563019</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7819213021860811</v>
+        <v>1.069927768984032</v>
       </c>
       <c r="D14">
-        <v>0.7263006195540443</v>
+        <v>0.7018353664705528</v>
       </c>
       <c r="E14">
-        <v>0.4599827724352957</v>
+        <v>1.676731891440171</v>
       </c>
       <c r="F14">
-        <v>0.7263006195540443</v>
+        <v>0.7018353664705528</v>
       </c>
       <c r="G14">
-        <v>0.4599827724352957</v>
+        <v>1.676731891440171</v>
       </c>
       <c r="H14">
-        <v>2.048623797531584</v>
+        <v>1.541349593929751</v>
       </c>
       <c r="I14">
-        <v>1.271455114279812</v>
+        <v>0.9733084733246973</v>
       </c>
       <c r="J14">
-        <v>1.037282074883116</v>
+        <v>0.9788428279111138</v>
       </c>
       <c r="K14">
-        <v>0.4599827724352957</v>
+        <v>1.676731891440171</v>
       </c>
       <c r="L14">
-        <v>0.7819213021860811</v>
+        <v>1.069927768984032</v>
       </c>
       <c r="M14">
-        <v>0.7541109608700627</v>
+        <v>0.8858815677272922</v>
       </c>
       <c r="N14">
-        <v>0.7541109608700627</v>
+        <v>0.8858815677272922</v>
       </c>
       <c r="O14">
-        <v>0.9265590120066457</v>
+        <v>0.9150238695930938</v>
       </c>
       <c r="P14">
-        <v>0.656068231391807</v>
+        <v>1.149498342298252</v>
       </c>
       <c r="Q14">
-        <v>0.656068231391807</v>
+        <v>1.149498342298252</v>
       </c>
       <c r="R14">
-        <v>0.6070468666526793</v>
+        <v>1.281306729583732</v>
       </c>
       <c r="S14">
-        <v>0.6070468666526793</v>
+        <v>1.281306729583732</v>
       </c>
       <c r="T14">
-        <v>1.054260946811655</v>
+        <v>1.156999320343386</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.4843167545547961</v>
+        <v>0.9855641510551513</v>
       </c>
       <c r="D15">
-        <v>0.0009743324530289159</v>
+        <v>0.9554655739681941</v>
       </c>
       <c r="E15">
-        <v>0.4593586118978514</v>
+        <v>1.034952805342675</v>
       </c>
       <c r="F15">
-        <v>0.0009743324530289159</v>
+        <v>0.9554655739681941</v>
       </c>
       <c r="G15">
-        <v>0.4593586118978514</v>
+        <v>1.034952805342675</v>
       </c>
       <c r="H15">
-        <v>0.1189499464817591</v>
+        <v>1.088827300761225</v>
       </c>
       <c r="I15">
-        <v>0.905859965332188</v>
+        <v>0.9718601434917811</v>
       </c>
       <c r="J15">
-        <v>0.6152665044859895</v>
+        <v>1.006597016612174</v>
       </c>
       <c r="K15">
-        <v>0.4593586118978514</v>
+        <v>1.034952805342675</v>
       </c>
       <c r="L15">
-        <v>0.4843167545547961</v>
+        <v>0.9855641510551513</v>
       </c>
       <c r="M15">
-        <v>0.2426455435039125</v>
+        <v>0.9705148625116726</v>
       </c>
       <c r="N15">
-        <v>0.2426455435039125</v>
+        <v>0.9705148625116726</v>
       </c>
       <c r="O15">
-        <v>0.463717017446671</v>
+        <v>0.9709632895050421</v>
       </c>
       <c r="P15">
-        <v>0.3148832329685589</v>
+        <v>0.9919941767886734</v>
       </c>
       <c r="Q15">
-        <v>0.3148832329685589</v>
+        <v>0.9919941767886734</v>
       </c>
       <c r="R15">
-        <v>0.351002077700882</v>
+        <v>1.002733833927174</v>
       </c>
       <c r="S15">
-        <v>0.351002077700882</v>
+        <v>1.002733833927174</v>
       </c>
       <c r="T15">
-        <v>0.4307876858676021</v>
+        <v>1.0072111652052</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.6211867673263761</v>
+        <v>0.9828423388664312</v>
       </c>
       <c r="D16">
-        <v>0.2088756008746336</v>
+        <v>0.99296287225667</v>
       </c>
       <c r="E16">
-        <v>1.575602521679741</v>
+        <v>1.07217271135824</v>
       </c>
       <c r="F16">
-        <v>0.2088756008746336</v>
+        <v>0.99296287225667</v>
       </c>
       <c r="G16">
-        <v>1.575602521679741</v>
+        <v>1.07217271135824</v>
       </c>
       <c r="H16">
-        <v>2.276283664443216</v>
+        <v>1.172816940723907</v>
       </c>
       <c r="I16">
-        <v>0.5135930725463815</v>
+        <v>0.9410090113137383</v>
       </c>
       <c r="J16">
-        <v>1.172872274067887</v>
+        <v>1.009725142191717</v>
       </c>
       <c r="K16">
-        <v>1.575602521679741</v>
+        <v>1.07217271135824</v>
       </c>
       <c r="L16">
-        <v>0.6211867673263761</v>
+        <v>0.9828423388664312</v>
       </c>
       <c r="M16">
-        <v>0.4150311841005049</v>
+        <v>0.9879026055615506</v>
       </c>
       <c r="N16">
-        <v>0.4150311841005049</v>
+        <v>0.9879026055615506</v>
       </c>
       <c r="O16">
-        <v>0.4478851469157971</v>
+        <v>0.9722714074789466</v>
       </c>
       <c r="P16">
-        <v>0.8018882966269169</v>
+        <v>1.015992640827114</v>
       </c>
       <c r="Q16">
-        <v>0.8018882966269169</v>
+        <v>1.015992640827114</v>
       </c>
       <c r="R16">
-        <v>0.9953168528901228</v>
+        <v>1.030037658459895</v>
       </c>
       <c r="S16">
-        <v>0.9953168528901228</v>
+        <v>1.030037658459895</v>
       </c>
       <c r="T16">
-        <v>1.061402316823039</v>
+        <v>1.028588169451784</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9687260920199238</v>
+        <v>0.8298310633807513</v>
       </c>
       <c r="D17">
-        <v>0.4161920930006792</v>
+        <v>0.6866623577106727</v>
       </c>
       <c r="E17">
-        <v>1.356209972525365</v>
+        <v>1.55072942171161</v>
       </c>
       <c r="F17">
-        <v>0.4161920930006792</v>
+        <v>0.6866623577106727</v>
       </c>
       <c r="G17">
-        <v>1.356209972525365</v>
+        <v>1.55072942171161</v>
       </c>
       <c r="H17">
-        <v>1.85579676626947</v>
+        <v>1.204487487202061</v>
       </c>
       <c r="I17">
-        <v>0.6316366775484792</v>
+        <v>0.9054890614091666</v>
       </c>
       <c r="J17">
-        <v>1.132474234599685</v>
+        <v>1.160684705532755</v>
       </c>
       <c r="K17">
-        <v>1.356209972525365</v>
+        <v>1.55072942171161</v>
       </c>
       <c r="L17">
-        <v>0.9687260920199238</v>
+        <v>0.8298310633807513</v>
       </c>
       <c r="M17">
-        <v>0.6924590925103015</v>
+        <v>0.758246710545712</v>
       </c>
       <c r="N17">
-        <v>0.6924590925103015</v>
+        <v>0.758246710545712</v>
       </c>
       <c r="O17">
-        <v>0.672184954189694</v>
+        <v>0.8073274941668634</v>
       </c>
       <c r="P17">
-        <v>0.9137093858486559</v>
+        <v>1.022407614267678</v>
       </c>
       <c r="Q17">
-        <v>0.9137093858486559</v>
+        <v>1.022407614267678</v>
       </c>
       <c r="R17">
-        <v>1.024334532517833</v>
+        <v>1.154488066128661</v>
       </c>
       <c r="S17">
-        <v>1.024334532517833</v>
+        <v>1.154488066128661</v>
       </c>
       <c r="T17">
-        <v>1.060172639327267</v>
+        <v>1.056314016157836</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.648517840524428</v>
+        <v>0.8801269628989373</v>
       </c>
       <c r="D18">
-        <v>0.8414475318184739</v>
+        <v>2.107395498622743</v>
       </c>
       <c r="E18">
-        <v>0.9501871663094348</v>
+        <v>1.287836394245102</v>
       </c>
       <c r="F18">
-        <v>0.8414475318184739</v>
+        <v>2.107395498622743</v>
       </c>
       <c r="G18">
-        <v>0.9501871663094348</v>
+        <v>1.287836394245102</v>
       </c>
       <c r="H18">
-        <v>1.029626235914345</v>
+        <v>2.648071871987566</v>
       </c>
       <c r="I18">
-        <v>0.869511203091709</v>
+        <v>0.7900946376189804</v>
       </c>
       <c r="J18">
-        <v>1.060561245618606</v>
+        <v>0.9538348561730109</v>
       </c>
       <c r="K18">
-        <v>0.9501871663094348</v>
+        <v>1.287836394245102</v>
       </c>
       <c r="L18">
-        <v>1.648517840524428</v>
+        <v>0.8801269628989373</v>
       </c>
       <c r="M18">
-        <v>1.244982686171451</v>
+        <v>1.49376123076084</v>
       </c>
       <c r="N18">
-        <v>1.244982686171451</v>
+        <v>1.49376123076084</v>
       </c>
       <c r="O18">
-        <v>1.11982552514487</v>
+        <v>1.259205699713553</v>
       </c>
       <c r="P18">
-        <v>1.146717512884112</v>
+        <v>1.425119618588927</v>
       </c>
       <c r="Q18">
-        <v>1.146717512884112</v>
+        <v>1.425119618588927</v>
       </c>
       <c r="R18">
-        <v>1.097584926240443</v>
+        <v>1.390798812502971</v>
       </c>
       <c r="S18">
-        <v>1.097584926240443</v>
+        <v>1.390798812502971</v>
       </c>
       <c r="T18">
-        <v>1.066641870546166</v>
+        <v>1.44456003692439</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>2.037741418745653</v>
+        <v>1.012158587864614</v>
       </c>
       <c r="D19">
-        <v>0.6264363563640529</v>
+        <v>0.9993436807909769</v>
       </c>
       <c r="E19">
-        <v>0.8410300854496349</v>
+        <v>1.002196571635674</v>
       </c>
       <c r="F19">
-        <v>0.6264363563640529</v>
+        <v>0.9993436807909769</v>
       </c>
       <c r="G19">
-        <v>0.8410300854496349</v>
+        <v>1.002196571635674</v>
       </c>
       <c r="H19">
-        <v>0.884102420517121</v>
+        <v>0.9989679694045387</v>
       </c>
       <c r="I19">
-        <v>0.957819393104825</v>
+        <v>0.9983101895838795</v>
       </c>
       <c r="J19">
-        <v>1.085470694092227</v>
+        <v>0.9994549750758157</v>
       </c>
       <c r="K19">
-        <v>0.8410300854496349</v>
+        <v>1.002196571635674</v>
       </c>
       <c r="L19">
-        <v>2.037741418745653</v>
+        <v>1.012158587864614</v>
       </c>
       <c r="M19">
-        <v>1.332088887554853</v>
+        <v>1.005751134327796</v>
       </c>
       <c r="N19">
-        <v>1.332088887554853</v>
+        <v>1.005751134327796</v>
       </c>
       <c r="O19">
-        <v>1.207332389404844</v>
+        <v>1.003270819413157</v>
       </c>
       <c r="P19">
-        <v>1.168402620186447</v>
+        <v>1.004566280097088</v>
       </c>
       <c r="Q19">
-        <v>1.168402620186447</v>
+        <v>1.004566280097088</v>
       </c>
       <c r="R19">
-        <v>1.086559486502244</v>
+        <v>1.003973852981735</v>
       </c>
       <c r="S19">
-        <v>1.086559486502244</v>
+        <v>1.003973852981735</v>
       </c>
       <c r="T19">
-        <v>1.072100061378919</v>
+        <v>1.001738662392583</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.013183099933517</v>
+        <v>1.025057486786627</v>
       </c>
       <c r="D20">
-        <v>1.000968960067054</v>
+        <v>0.9964899026527964</v>
       </c>
       <c r="E20">
-        <v>0.9925502539948015</v>
+        <v>1.014257552818776</v>
       </c>
       <c r="F20">
-        <v>1.000968960067054</v>
+        <v>0.9964899026527964</v>
       </c>
       <c r="G20">
-        <v>0.9925502539948015</v>
+        <v>1.014257552818776</v>
       </c>
       <c r="H20">
-        <v>1.020168195904649</v>
+        <v>0.9975897466643379</v>
       </c>
       <c r="I20">
-        <v>1.000002400654317</v>
+        <v>0.9976311508673553</v>
       </c>
       <c r="J20">
-        <v>0.9951391432263114</v>
+        <v>0.9971686592163647</v>
       </c>
       <c r="K20">
-        <v>0.9925502539948015</v>
+        <v>1.014257552818776</v>
       </c>
       <c r="L20">
-        <v>1.013183099933517</v>
+        <v>1.025057486786627</v>
       </c>
       <c r="M20">
-        <v>1.007076030000285</v>
+        <v>1.010773694719712</v>
       </c>
       <c r="N20">
-        <v>1.007076030000285</v>
+        <v>1.010773694719712</v>
       </c>
       <c r="O20">
-        <v>1.004718153551629</v>
+        <v>1.006392846768926</v>
       </c>
       <c r="P20">
-        <v>1.002234104665124</v>
+        <v>1.011934980752733</v>
       </c>
       <c r="Q20">
-        <v>1.002234104665124</v>
+        <v>1.011934980752733</v>
       </c>
       <c r="R20">
-        <v>0.9998131419975436</v>
+        <v>1.012515623769244</v>
       </c>
       <c r="S20">
-        <v>0.9998131419975436</v>
+        <v>1.012515623769244</v>
       </c>
       <c r="T20">
-        <v>1.003668675630108</v>
+        <v>1.004699083167709</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.016636027902821</v>
+        <v>1.031726546931392</v>
       </c>
       <c r="D21">
-        <v>1.00333356663297</v>
+        <v>1.001232189149919</v>
       </c>
       <c r="E21">
-        <v>1.03121118644751</v>
+        <v>1.05976855010072</v>
       </c>
       <c r="F21">
-        <v>1.00333356663297</v>
+        <v>1.001232189149919</v>
       </c>
       <c r="G21">
-        <v>1.03121118644751</v>
+        <v>1.05976855010072</v>
       </c>
       <c r="H21">
-        <v>0.9391010727329837</v>
+        <v>1.015937954466408</v>
       </c>
       <c r="I21">
-        <v>1.006318434082488</v>
+        <v>0.9984040964025578</v>
       </c>
       <c r="J21">
-        <v>1.008538821404181</v>
+        <v>0.9911883221053872</v>
       </c>
       <c r="K21">
-        <v>1.03121118644751</v>
+        <v>1.05976855010072</v>
       </c>
       <c r="L21">
-        <v>1.016636027902821</v>
+        <v>1.031726546931392</v>
       </c>
       <c r="M21">
-        <v>1.009984797267896</v>
+        <v>1.016479368040656</v>
       </c>
       <c r="N21">
-        <v>1.009984797267896</v>
+        <v>1.016479368040656</v>
       </c>
       <c r="O21">
-        <v>1.008762676206093</v>
+        <v>1.010454277494623</v>
       </c>
       <c r="P21">
-        <v>1.017060260327767</v>
+        <v>1.030909095394011</v>
       </c>
       <c r="Q21">
-        <v>1.017060260327767</v>
+        <v>1.030909095394011</v>
       </c>
       <c r="R21">
-        <v>1.020597991857703</v>
+        <v>1.038123959070688</v>
       </c>
       <c r="S21">
-        <v>1.020597991857703</v>
+        <v>1.038123959070688</v>
       </c>
       <c r="T21">
-        <v>1.000856518200492</v>
+        <v>1.016376276526064</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.982284694217736</v>
+        <v>1.076738863273819</v>
       </c>
       <c r="D22">
-        <v>1.011757208515752</v>
+        <v>0.9850340071568779</v>
       </c>
       <c r="E22">
-        <v>1.184395662269359</v>
+        <v>1.078710177938514</v>
       </c>
       <c r="F22">
-        <v>1.011757208515752</v>
+        <v>0.9850340071568779</v>
       </c>
       <c r="G22">
-        <v>1.184395662269359</v>
+        <v>1.078710177938514</v>
       </c>
       <c r="H22">
-        <v>1.047979965339943</v>
+        <v>1.01841472493443</v>
       </c>
       <c r="I22">
-        <v>0.9624595493987876</v>
+        <v>0.9970730718799103</v>
       </c>
       <c r="J22">
-        <v>0.9782552853948214</v>
+        <v>1.005164951919189</v>
       </c>
       <c r="K22">
-        <v>1.184395662269359</v>
+        <v>1.078710177938514</v>
       </c>
       <c r="L22">
-        <v>0.982284694217736</v>
+        <v>1.076738863273819</v>
       </c>
       <c r="M22">
-        <v>0.9970209513667441</v>
+        <v>1.030886435215348</v>
       </c>
       <c r="N22">
-        <v>0.9970209513667441</v>
+        <v>1.030886435215348</v>
       </c>
       <c r="O22">
-        <v>0.985500484044092</v>
+        <v>1.019615314103536</v>
       </c>
       <c r="P22">
-        <v>1.059479188334282</v>
+        <v>1.046827682789737</v>
       </c>
       <c r="Q22">
-        <v>1.059479188334282</v>
+        <v>1.046827682789737</v>
       </c>
       <c r="R22">
-        <v>1.090708306818052</v>
+        <v>1.054798306576931</v>
       </c>
       <c r="S22">
-        <v>1.090708306818052</v>
+        <v>1.054798306576931</v>
       </c>
       <c r="T22">
-        <v>1.0278553941894</v>
+        <v>1.02685596618379</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.200142699022627</v>
+      </c>
+      <c r="D23">
+        <v>0.810737025674218</v>
+      </c>
+      <c r="E23">
+        <v>1.259919146471686</v>
+      </c>
+      <c r="F23">
+        <v>0.810737025674218</v>
+      </c>
+      <c r="G23">
+        <v>1.259919146471686</v>
+      </c>
+      <c r="H23">
+        <v>0.9929582167165013</v>
+      </c>
+      <c r="I23">
+        <v>0.9163171049078496</v>
+      </c>
+      <c r="J23">
+        <v>1.013808777747072</v>
+      </c>
+      <c r="K23">
+        <v>1.259919146471686</v>
+      </c>
+      <c r="L23">
+        <v>1.200142699022627</v>
+      </c>
+      <c r="M23">
+        <v>1.005439862348422</v>
+      </c>
+      <c r="N23">
+        <v>1.005439862348422</v>
+      </c>
+      <c r="O23">
+        <v>0.9757322765348982</v>
+      </c>
+      <c r="P23">
+        <v>1.09026629038951</v>
+      </c>
+      <c r="Q23">
+        <v>1.09026629038951</v>
+      </c>
+      <c r="R23">
+        <v>1.132679504410054</v>
+      </c>
+      <c r="S23">
+        <v>1.132679504410054</v>
+      </c>
+      <c r="T23">
+        <v>1.032313828423326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.659197884936643</v>
+      </c>
+      <c r="D24">
+        <v>0.03059261043852909</v>
+      </c>
+      <c r="E24">
+        <v>0.06882009600946588</v>
+      </c>
+      <c r="F24">
+        <v>0.03059261043852909</v>
+      </c>
+      <c r="G24">
+        <v>0.06882009600946588</v>
+      </c>
+      <c r="H24">
+        <v>0.04122312722736213</v>
+      </c>
+      <c r="I24">
+        <v>1.404374129716781</v>
+      </c>
+      <c r="J24">
+        <v>1.090143372045717</v>
+      </c>
+      <c r="K24">
+        <v>0.06882009600946588</v>
+      </c>
+      <c r="L24">
+        <v>1.659197884936643</v>
+      </c>
+      <c r="M24">
+        <v>0.8448952476875862</v>
+      </c>
+      <c r="N24">
+        <v>0.8448952476875862</v>
+      </c>
+      <c r="O24">
+        <v>1.031388208363984</v>
+      </c>
+      <c r="P24">
+        <v>0.5862035304615461</v>
+      </c>
+      <c r="Q24">
+        <v>0.5862035304615462</v>
+      </c>
+      <c r="R24">
+        <v>0.456857671848526</v>
+      </c>
+      <c r="S24">
+        <v>0.456857671848526</v>
+      </c>
+      <c r="T24">
+        <v>0.7157252033957496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.1471823070372633</v>
+      </c>
+      <c r="D25">
+        <v>2.837939515626966</v>
+      </c>
+      <c r="E25">
+        <v>1.999800903482981</v>
+      </c>
+      <c r="F25">
+        <v>2.837939515626966</v>
+      </c>
+      <c r="G25">
+        <v>1.999800903482981</v>
+      </c>
+      <c r="H25">
+        <v>2.109224680354409</v>
+      </c>
+      <c r="I25">
+        <v>1.094889012079879</v>
+      </c>
+      <c r="J25">
+        <v>0.8163691912149976</v>
+      </c>
+      <c r="K25">
+        <v>1.999800903482981</v>
+      </c>
+      <c r="L25">
+        <v>0.1471823070372633</v>
+      </c>
+      <c r="M25">
+        <v>1.492560911332115</v>
+      </c>
+      <c r="N25">
+        <v>1.492560911332115</v>
+      </c>
+      <c r="O25">
+        <v>1.360003611581369</v>
+      </c>
+      <c r="P25">
+        <v>1.661640908715737</v>
+      </c>
+      <c r="Q25">
+        <v>1.661640908715737</v>
+      </c>
+      <c r="R25">
+        <v>1.746180907407548</v>
+      </c>
+      <c r="S25">
+        <v>1.746180907407548</v>
+      </c>
+      <c r="T25">
+        <v>1.500900934966083</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.7819213021860811</v>
+      </c>
+      <c r="D26">
+        <v>0.7263006195540443</v>
+      </c>
+      <c r="E26">
+        <v>0.4599827724352957</v>
+      </c>
+      <c r="F26">
+        <v>0.7263006195540443</v>
+      </c>
+      <c r="G26">
+        <v>0.4599827724352957</v>
+      </c>
+      <c r="H26">
+        <v>2.048623797531584</v>
+      </c>
+      <c r="I26">
+        <v>1.271455114279812</v>
+      </c>
+      <c r="J26">
+        <v>1.037282074883116</v>
+      </c>
+      <c r="K26">
+        <v>0.4599827724352957</v>
+      </c>
+      <c r="L26">
+        <v>0.7819213021860811</v>
+      </c>
+      <c r="M26">
+        <v>0.7541109608700627</v>
+      </c>
+      <c r="N26">
+        <v>0.7541109608700627</v>
+      </c>
+      <c r="O26">
+        <v>0.9265590120066457</v>
+      </c>
+      <c r="P26">
+        <v>0.656068231391807</v>
+      </c>
+      <c r="Q26">
+        <v>0.656068231391807</v>
+      </c>
+      <c r="R26">
+        <v>0.6070468666526793</v>
+      </c>
+      <c r="S26">
+        <v>0.6070468666526793</v>
+      </c>
+      <c r="T26">
+        <v>1.054260946811655</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.4843167545547961</v>
+      </c>
+      <c r="D27">
+        <v>0.0009743324530289159</v>
+      </c>
+      <c r="E27">
+        <v>0.4593586118978514</v>
+      </c>
+      <c r="F27">
+        <v>0.0009743324530289159</v>
+      </c>
+      <c r="G27">
+        <v>0.4593586118978514</v>
+      </c>
+      <c r="H27">
+        <v>0.1189499464817591</v>
+      </c>
+      <c r="I27">
+        <v>0.905859965332188</v>
+      </c>
+      <c r="J27">
+        <v>0.6152665044859895</v>
+      </c>
+      <c r="K27">
+        <v>0.4593586118978514</v>
+      </c>
+      <c r="L27">
+        <v>0.4843167545547961</v>
+      </c>
+      <c r="M27">
+        <v>0.2426455435039125</v>
+      </c>
+      <c r="N27">
+        <v>0.2426455435039125</v>
+      </c>
+      <c r="O27">
+        <v>0.463717017446671</v>
+      </c>
+      <c r="P27">
+        <v>0.3148832329685589</v>
+      </c>
+      <c r="Q27">
+        <v>0.3148832329685589</v>
+      </c>
+      <c r="R27">
+        <v>0.351002077700882</v>
+      </c>
+      <c r="S27">
+        <v>0.351002077700882</v>
+      </c>
+      <c r="T27">
+        <v>0.4307876858676021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.6211867673263761</v>
+      </c>
+      <c r="D28">
+        <v>0.2088756008746336</v>
+      </c>
+      <c r="E28">
+        <v>1.575602521679741</v>
+      </c>
+      <c r="F28">
+        <v>0.2088756008746336</v>
+      </c>
+      <c r="G28">
+        <v>1.575602521679741</v>
+      </c>
+      <c r="H28">
+        <v>2.276283664443216</v>
+      </c>
+      <c r="I28">
+        <v>0.5135930725463815</v>
+      </c>
+      <c r="J28">
+        <v>1.172872274067887</v>
+      </c>
+      <c r="K28">
+        <v>1.575602521679741</v>
+      </c>
+      <c r="L28">
+        <v>0.6211867673263761</v>
+      </c>
+      <c r="M28">
+        <v>0.4150311841005049</v>
+      </c>
+      <c r="N28">
+        <v>0.4150311841005049</v>
+      </c>
+      <c r="O28">
+        <v>0.4478851469157971</v>
+      </c>
+      <c r="P28">
+        <v>0.8018882966269169</v>
+      </c>
+      <c r="Q28">
+        <v>0.8018882966269169</v>
+      </c>
+      <c r="R28">
+        <v>0.9953168528901228</v>
+      </c>
+      <c r="S28">
+        <v>0.9953168528901228</v>
+      </c>
+      <c r="T28">
+        <v>1.061402316823039</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9687260920199238</v>
+      </c>
+      <c r="D29">
+        <v>0.4161920930006792</v>
+      </c>
+      <c r="E29">
+        <v>1.356209972525365</v>
+      </c>
+      <c r="F29">
+        <v>0.4161920930006792</v>
+      </c>
+      <c r="G29">
+        <v>1.356209972525365</v>
+      </c>
+      <c r="H29">
+        <v>1.85579676626947</v>
+      </c>
+      <c r="I29">
+        <v>0.6316366775484792</v>
+      </c>
+      <c r="J29">
+        <v>1.132474234599685</v>
+      </c>
+      <c r="K29">
+        <v>1.356209972525365</v>
+      </c>
+      <c r="L29">
+        <v>0.9687260920199238</v>
+      </c>
+      <c r="M29">
+        <v>0.6924590925103015</v>
+      </c>
+      <c r="N29">
+        <v>0.6924590925103015</v>
+      </c>
+      <c r="O29">
+        <v>0.672184954189694</v>
+      </c>
+      <c r="P29">
+        <v>0.9137093858486559</v>
+      </c>
+      <c r="Q29">
+        <v>0.9137093858486559</v>
+      </c>
+      <c r="R29">
+        <v>1.024334532517833</v>
+      </c>
+      <c r="S29">
+        <v>1.024334532517833</v>
+      </c>
+      <c r="T29">
+        <v>1.060172639327267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.648517840524428</v>
+      </c>
+      <c r="D30">
+        <v>0.8414475318184739</v>
+      </c>
+      <c r="E30">
+        <v>0.9501871663094348</v>
+      </c>
+      <c r="F30">
+        <v>0.8414475318184739</v>
+      </c>
+      <c r="G30">
+        <v>0.9501871663094348</v>
+      </c>
+      <c r="H30">
+        <v>1.029626235914345</v>
+      </c>
+      <c r="I30">
+        <v>0.869511203091709</v>
+      </c>
+      <c r="J30">
+        <v>1.060561245618606</v>
+      </c>
+      <c r="K30">
+        <v>0.9501871663094348</v>
+      </c>
+      <c r="L30">
+        <v>1.648517840524428</v>
+      </c>
+      <c r="M30">
+        <v>1.244982686171451</v>
+      </c>
+      <c r="N30">
+        <v>1.244982686171451</v>
+      </c>
+      <c r="O30">
+        <v>1.11982552514487</v>
+      </c>
+      <c r="P30">
+        <v>1.146717512884112</v>
+      </c>
+      <c r="Q30">
+        <v>1.146717512884112</v>
+      </c>
+      <c r="R30">
+        <v>1.097584926240443</v>
+      </c>
+      <c r="S30">
+        <v>1.097584926240443</v>
+      </c>
+      <c r="T30">
+        <v>1.066641870546166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>2.037741418745653</v>
+      </c>
+      <c r="D31">
+        <v>0.6264363563640529</v>
+      </c>
+      <c r="E31">
+        <v>0.8410300854496349</v>
+      </c>
+      <c r="F31">
+        <v>0.6264363563640529</v>
+      </c>
+      <c r="G31">
+        <v>0.8410300854496349</v>
+      </c>
+      <c r="H31">
+        <v>0.884102420517121</v>
+      </c>
+      <c r="I31">
+        <v>0.957819393104825</v>
+      </c>
+      <c r="J31">
+        <v>1.085470694092227</v>
+      </c>
+      <c r="K31">
+        <v>0.8410300854496349</v>
+      </c>
+      <c r="L31">
+        <v>2.037741418745653</v>
+      </c>
+      <c r="M31">
+        <v>1.332088887554853</v>
+      </c>
+      <c r="N31">
+        <v>1.332088887554853</v>
+      </c>
+      <c r="O31">
+        <v>1.207332389404844</v>
+      </c>
+      <c r="P31">
+        <v>1.168402620186447</v>
+      </c>
+      <c r="Q31">
+        <v>1.168402620186447</v>
+      </c>
+      <c r="R31">
+        <v>1.086559486502244</v>
+      </c>
+      <c r="S31">
+        <v>1.086559486502244</v>
+      </c>
+      <c r="T31">
+        <v>1.072100061378919</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.2775652097894795</v>
+      </c>
+      <c r="D32">
+        <v>0.001102575218739726</v>
+      </c>
+      <c r="E32">
+        <v>2.191540842043397</v>
+      </c>
+      <c r="F32">
+        <v>0.001102575218739726</v>
+      </c>
+      <c r="G32">
+        <v>2.191540842043397</v>
+      </c>
+      <c r="H32">
+        <v>2.65869690810263</v>
+      </c>
+      <c r="I32">
+        <v>0.3895991182054246</v>
+      </c>
+      <c r="J32">
+        <v>1.196186042627398</v>
+      </c>
+      <c r="K32">
+        <v>2.191540842043397</v>
+      </c>
+      <c r="L32">
+        <v>0.2775652097894795</v>
+      </c>
+      <c r="M32">
+        <v>0.1393338925041096</v>
+      </c>
+      <c r="N32">
+        <v>0.1393338925041096</v>
+      </c>
+      <c r="O32">
+        <v>0.222755634404548</v>
+      </c>
+      <c r="P32">
+        <v>0.8234028756838723</v>
+      </c>
+      <c r="Q32">
+        <v>0.8234028756838723</v>
+      </c>
+      <c r="R32">
+        <v>1.165437367273753</v>
+      </c>
+      <c r="S32">
+        <v>1.165437367273753</v>
+      </c>
+      <c r="T32">
+        <v>1.119115115997845</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>2.105215041947895</v>
+      </c>
+      <c r="D33">
+        <v>3.406934172489474</v>
+      </c>
+      <c r="E33">
+        <v>1.704390356332631</v>
+      </c>
+      <c r="F33">
+        <v>3.406934172489474</v>
+      </c>
+      <c r="G33">
+        <v>1.704390356332631</v>
+      </c>
+      <c r="H33">
+        <v>6.308808240799999</v>
+      </c>
+      <c r="I33">
+        <v>0.03203717419426315</v>
+      </c>
+      <c r="J33">
+        <v>0.1417101781263158</v>
+      </c>
+      <c r="K33">
+        <v>1.704390356332631</v>
+      </c>
+      <c r="L33">
+        <v>2.105215041947895</v>
+      </c>
+      <c r="M33">
+        <v>2.756074607218684</v>
+      </c>
+      <c r="N33">
+        <v>2.756074607218684</v>
+      </c>
+      <c r="O33">
+        <v>1.848062129543877</v>
+      </c>
+      <c r="P33">
+        <v>2.405513190256666</v>
+      </c>
+      <c r="Q33">
+        <v>2.405513190256667</v>
+      </c>
+      <c r="R33">
+        <v>2.230232481775658</v>
+      </c>
+      <c r="S33">
+        <v>2.230232481775658</v>
+      </c>
+      <c r="T33">
+        <v>2.283182527315096</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>2.953486431123686</v>
+      </c>
+      <c r="D34">
+        <v>-0.001297981805263158</v>
+      </c>
+      <c r="E34">
+        <v>5.909017656742106</v>
+      </c>
+      <c r="F34">
+        <v>-0.001297981805263158</v>
+      </c>
+      <c r="G34">
+        <v>5.909017656742106</v>
+      </c>
+      <c r="H34">
+        <v>0.001325737894736841</v>
+      </c>
+      <c r="I34">
+        <v>-0.0002393559737894737</v>
+      </c>
+      <c r="J34">
+        <v>2.571007063757894</v>
+      </c>
+      <c r="K34">
+        <v>5.909017656742106</v>
+      </c>
+      <c r="L34">
+        <v>2.953486431123686</v>
+      </c>
+      <c r="M34">
+        <v>1.476094224659211</v>
+      </c>
+      <c r="N34">
+        <v>1.476094224659211</v>
+      </c>
+      <c r="O34">
+        <v>0.9839830311148777</v>
+      </c>
+      <c r="P34">
+        <v>2.953735368686843</v>
+      </c>
+      <c r="Q34">
+        <v>2.953735368686843</v>
+      </c>
+      <c r="R34">
+        <v>3.692555940700658</v>
+      </c>
+      <c r="S34">
+        <v>3.692555940700658</v>
+      </c>
+      <c r="T34">
+        <v>1.905549925289895</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>8.412050873613556</v>
+      </c>
+      <c r="D35">
+        <v>0.4221640665577652</v>
+      </c>
+      <c r="E35">
+        <v>0.4495140827599044</v>
+      </c>
+      <c r="F35">
+        <v>0.4221640665577652</v>
+      </c>
+      <c r="G35">
+        <v>0.4495140827599044</v>
+      </c>
+      <c r="H35">
+        <v>0.5138700219329398</v>
+      </c>
+      <c r="I35">
+        <v>0.4449249396579124</v>
+      </c>
+      <c r="J35">
+        <v>0.8071659142790473</v>
+      </c>
+      <c r="K35">
+        <v>0.4495140827599044</v>
+      </c>
+      <c r="L35">
+        <v>8.412050873613556</v>
+      </c>
+      <c r="M35">
+        <v>4.417107470085661</v>
+      </c>
+      <c r="N35">
+        <v>4.417107470085661</v>
+      </c>
+      <c r="O35">
+        <v>3.093046626609745</v>
+      </c>
+      <c r="P35">
+        <v>3.094576340977075</v>
+      </c>
+      <c r="Q35">
+        <v>3.094576340977075</v>
+      </c>
+      <c r="R35">
+        <v>2.433310776422783</v>
+      </c>
+      <c r="S35">
+        <v>2.433310776422783</v>
+      </c>
+      <c r="T35">
+        <v>1.841614983133521</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.013183099933517</v>
+      </c>
+      <c r="D36">
+        <v>1.000968960067054</v>
+      </c>
+      <c r="E36">
+        <v>0.9925502539948015</v>
+      </c>
+      <c r="F36">
+        <v>1.000968960067054</v>
+      </c>
+      <c r="G36">
+        <v>0.9925502539948015</v>
+      </c>
+      <c r="H36">
+        <v>1.020168195904649</v>
+      </c>
+      <c r="I36">
+        <v>1.000002400654317</v>
+      </c>
+      <c r="J36">
+        <v>0.9951391432263114</v>
+      </c>
+      <c r="K36">
+        <v>0.9925502539948015</v>
+      </c>
+      <c r="L36">
+        <v>1.013183099933517</v>
+      </c>
+      <c r="M36">
+        <v>1.007076030000285</v>
+      </c>
+      <c r="N36">
+        <v>1.007076030000285</v>
+      </c>
+      <c r="O36">
+        <v>1.004718153551629</v>
+      </c>
+      <c r="P36">
+        <v>1.002234104665124</v>
+      </c>
+      <c r="Q36">
+        <v>1.002234104665124</v>
+      </c>
+      <c r="R36">
+        <v>0.9998131419975436</v>
+      </c>
+      <c r="S36">
+        <v>0.9998131419975436</v>
+      </c>
+      <c r="T36">
+        <v>1.003668675630108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.016636027902821</v>
+      </c>
+      <c r="D37">
+        <v>1.00333356663297</v>
+      </c>
+      <c r="E37">
+        <v>1.03121118644751</v>
+      </c>
+      <c r="F37">
+        <v>1.00333356663297</v>
+      </c>
+      <c r="G37">
+        <v>1.03121118644751</v>
+      </c>
+      <c r="H37">
+        <v>0.9391010727329837</v>
+      </c>
+      <c r="I37">
+        <v>1.006318434082488</v>
+      </c>
+      <c r="J37">
+        <v>1.008538821404181</v>
+      </c>
+      <c r="K37">
+        <v>1.03121118644751</v>
+      </c>
+      <c r="L37">
+        <v>1.016636027902821</v>
+      </c>
+      <c r="M37">
+        <v>1.009984797267896</v>
+      </c>
+      <c r="N37">
+        <v>1.009984797267896</v>
+      </c>
+      <c r="O37">
+        <v>1.008762676206093</v>
+      </c>
+      <c r="P37">
+        <v>1.017060260327767</v>
+      </c>
+      <c r="Q37">
+        <v>1.017060260327767</v>
+      </c>
+      <c r="R37">
+        <v>1.020597991857703</v>
+      </c>
+      <c r="S37">
+        <v>1.020597991857703</v>
+      </c>
+      <c r="T37">
+        <v>1.000856518200492</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.982284694217736</v>
+      </c>
+      <c r="D38">
+        <v>1.011757208515752</v>
+      </c>
+      <c r="E38">
+        <v>1.184395662269359</v>
+      </c>
+      <c r="F38">
+        <v>1.011757208515752</v>
+      </c>
+      <c r="G38">
+        <v>1.184395662269359</v>
+      </c>
+      <c r="H38">
+        <v>1.047979965339943</v>
+      </c>
+      <c r="I38">
+        <v>0.9624595493987876</v>
+      </c>
+      <c r="J38">
+        <v>0.9782552853948214</v>
+      </c>
+      <c r="K38">
+        <v>1.184395662269359</v>
+      </c>
+      <c r="L38">
+        <v>0.982284694217736</v>
+      </c>
+      <c r="M38">
+        <v>0.9970209513667441</v>
+      </c>
+      <c r="N38">
+        <v>0.9970209513667441</v>
+      </c>
+      <c r="O38">
+        <v>0.985500484044092</v>
+      </c>
+      <c r="P38">
+        <v>1.059479188334282</v>
+      </c>
+      <c r="Q38">
+        <v>1.059479188334282</v>
+      </c>
+      <c r="R38">
+        <v>1.090708306818052</v>
+      </c>
+      <c r="S38">
+        <v>1.090708306818052</v>
+      </c>
+      <c r="T38">
+        <v>1.0278553941894</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.052223374503082</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9132214845478036</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.155993451257065</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9132214845478036</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.155993451257065</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.055858053697588</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.8811897003167057</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9872646853254073</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.155993451257065</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.052223374503082</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9827224295254429</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9827224295254429</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9488781864558637</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.040479436769317</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.040479436769317</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.069357940391254</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.069357940391254</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.007625124941275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.044424204754068</v>
+      </c>
+      <c r="D40">
+        <v>0.8424642276897281</v>
+      </c>
+      <c r="E40">
+        <v>0.8945712378027499</v>
+      </c>
+      <c r="F40">
+        <v>0.8424642276897281</v>
+      </c>
+      <c r="G40">
+        <v>0.8945712378027499</v>
+      </c>
+      <c r="H40">
+        <v>2.515727651784221</v>
+      </c>
+      <c r="I40">
+        <v>0.7950311478521616</v>
+      </c>
+      <c r="J40">
+        <v>0.9563132136788391</v>
+      </c>
+      <c r="K40">
+        <v>0.8945712378027499</v>
+      </c>
+      <c r="L40">
+        <v>1.044424204754068</v>
+      </c>
+      <c r="M40">
+        <v>0.9434442162218981</v>
+      </c>
+      <c r="N40">
+        <v>0.9434442162218981</v>
+      </c>
+      <c r="O40">
+        <v>0.8939731934319859</v>
+      </c>
+      <c r="P40">
+        <v>0.9271532234155154</v>
+      </c>
+      <c r="Q40">
+        <v>0.9271532234155154</v>
+      </c>
+      <c r="R40">
+        <v>0.919007727012324</v>
+      </c>
+      <c r="S40">
+        <v>0.919007727012324</v>
+      </c>
+      <c r="T40">
+        <v>1.174755280593628</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9957370168053223</v>
+      </c>
+      <c r="D41">
+        <v>0.9651100536943382</v>
+      </c>
+      <c r="E41">
+        <v>1.051535858548108</v>
+      </c>
+      <c r="F41">
+        <v>0.9651100536943382</v>
+      </c>
+      <c r="G41">
+        <v>1.051535858548108</v>
+      </c>
+      <c r="H41">
+        <v>0.9027401930474503</v>
+      </c>
+      <c r="I41">
+        <v>0.9865969225728917</v>
+      </c>
+      <c r="J41">
+        <v>1.009812870718593</v>
+      </c>
+      <c r="K41">
+        <v>1.051535858548108</v>
+      </c>
+      <c r="L41">
+        <v>0.9957370168053223</v>
+      </c>
+      <c r="M41">
+        <v>0.9804235352498303</v>
+      </c>
+      <c r="N41">
+        <v>0.9804235352498303</v>
+      </c>
+      <c r="O41">
+        <v>0.982481331024184</v>
+      </c>
+      <c r="P41">
+        <v>1.004127643015923</v>
+      </c>
+      <c r="Q41">
+        <v>1.004127643015923</v>
+      </c>
+      <c r="R41">
+        <v>1.015979696898969</v>
+      </c>
+      <c r="S41">
+        <v>1.015979696898969</v>
+      </c>
+      <c r="T41">
+        <v>0.9852554858977838</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.059808106510289</v>
+      </c>
+      <c r="D42">
+        <v>0.9327542208413327</v>
+      </c>
+      <c r="E42">
+        <v>0.9163524953091838</v>
+      </c>
+      <c r="F42">
+        <v>0.9327542208413327</v>
+      </c>
+      <c r="G42">
+        <v>0.9163524953091838</v>
+      </c>
+      <c r="H42">
+        <v>2.582773881248953</v>
+      </c>
+      <c r="I42">
+        <v>0.7635720613409159</v>
+      </c>
+      <c r="J42">
+        <v>0.9282653076045924</v>
+      </c>
+      <c r="K42">
+        <v>0.9163524953091838</v>
+      </c>
+      <c r="L42">
+        <v>1.059808106510289</v>
+      </c>
+      <c r="M42">
+        <v>0.9962811636758109</v>
+      </c>
+      <c r="N42">
+        <v>0.9962811636758109</v>
+      </c>
+      <c r="O42">
+        <v>0.9187114628975125</v>
+      </c>
+      <c r="P42">
+        <v>0.9696382742202685</v>
+      </c>
+      <c r="Q42">
+        <v>0.9696382742202685</v>
+      </c>
+      <c r="R42">
+        <v>0.9563168294924973</v>
+      </c>
+      <c r="S42">
+        <v>0.9563168294924973</v>
+      </c>
+      <c r="T42">
+        <v>1.197254345475878</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW05.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,36 +85,36 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
@@ -89,9 +122,6 @@
   </si>
   <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +582,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,58 +644,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.034952805342675</v>
+        <v>1.025057486786627</v>
       </c>
       <c r="D3">
-        <v>0.9554655739681943</v>
+        <v>0.9964899026527964</v>
       </c>
       <c r="E3">
-        <v>0.9855641510551513</v>
+        <v>1.014257552818776</v>
       </c>
       <c r="F3">
-        <v>1.034952805342675</v>
+        <v>0.9964899026527964</v>
       </c>
       <c r="G3">
-        <v>1.088827300761225</v>
+        <v>1.014257552818776</v>
       </c>
       <c r="H3">
-        <v>0.9718601434917811</v>
+        <v>0.9975897466643379</v>
       </c>
       <c r="I3">
-        <v>1.006597016612174</v>
+        <v>0.9976311508673553</v>
       </c>
       <c r="J3">
-        <v>0.9554655739681943</v>
+        <v>0.9971686592163647</v>
       </c>
       <c r="K3">
-        <v>1.034952805342675</v>
+        <v>1.014257552818776</v>
       </c>
       <c r="L3">
-        <v>0.9855641510551513</v>
+        <v>1.025057486786627</v>
       </c>
       <c r="M3">
-        <v>0.9705148625116728</v>
+        <v>1.010773694719712</v>
       </c>
       <c r="N3">
-        <v>0.9705148625116728</v>
+        <v>1.010773694719712</v>
       </c>
       <c r="O3">
-        <v>0.9709632895050423</v>
+        <v>1.006392846768926</v>
       </c>
       <c r="P3">
-        <v>0.9919941767886735</v>
+        <v>1.011934980752733</v>
       </c>
       <c r="Q3">
-        <v>0.9919941767886735</v>
+        <v>1.011934980752733</v>
       </c>
       <c r="R3">
-        <v>1.002733833927174</v>
+        <v>1.012515623769244</v>
       </c>
       <c r="S3">
-        <v>1.002733833927174</v>
+        <v>1.012515623769244</v>
       </c>
       <c r="T3">
-        <v>1.0072111652052</v>
+        <v>1.004699083167709</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,58 +706,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.07217271135824</v>
+        <v>1.044424204754068</v>
       </c>
       <c r="D4">
-        <v>0.99296287225667</v>
+        <v>0.8424642276897281</v>
       </c>
       <c r="E4">
-        <v>0.9828423388664312</v>
+        <v>0.8945712378027499</v>
       </c>
       <c r="F4">
-        <v>1.07217271135824</v>
+        <v>0.8424642276897281</v>
       </c>
       <c r="G4">
-        <v>1.172816940723907</v>
+        <v>0.8945712378027499</v>
       </c>
       <c r="H4">
-        <v>0.9410090113137385</v>
+        <v>2.515727651784221</v>
       </c>
       <c r="I4">
-        <v>1.009725142191717</v>
+        <v>0.7950311478521616</v>
       </c>
       <c r="J4">
-        <v>0.99296287225667</v>
+        <v>0.9563132136788391</v>
       </c>
       <c r="K4">
-        <v>1.07217271135824</v>
+        <v>0.8945712378027499</v>
       </c>
       <c r="L4">
-        <v>0.9828423388664312</v>
+        <v>1.044424204754068</v>
       </c>
       <c r="M4">
-        <v>0.9879026055615506</v>
+        <v>0.9434442162218981</v>
       </c>
       <c r="N4">
-        <v>0.9879026055615506</v>
+        <v>0.9434442162218981</v>
       </c>
       <c r="O4">
-        <v>0.9722714074789466</v>
+        <v>0.8939731934319859</v>
       </c>
       <c r="P4">
-        <v>1.015992640827114</v>
+        <v>0.9271532234155154</v>
       </c>
       <c r="Q4">
-        <v>1.015992640827114</v>
+        <v>0.9271532234155154</v>
       </c>
       <c r="R4">
-        <v>1.030037658459895</v>
+        <v>0.919007727012324</v>
       </c>
       <c r="S4">
-        <v>1.030037658459895</v>
+        <v>0.919007727012324</v>
       </c>
       <c r="T4">
-        <v>1.028588169451784</v>
+        <v>1.174755280593628</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,58 +768,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.55072942171161</v>
+        <v>1.975485615785543</v>
       </c>
       <c r="D5">
-        <v>0.6866623577106727</v>
+        <v>0.781402356743381</v>
       </c>
       <c r="E5">
-        <v>0.8298310633807513</v>
+        <v>0.9571016004522461</v>
       </c>
       <c r="F5">
-        <v>1.55072942171161</v>
+        <v>0.781402356743381</v>
       </c>
       <c r="G5">
-        <v>1.204487487202061</v>
+        <v>0.9571016004522461</v>
       </c>
       <c r="H5">
-        <v>0.9054890614091666</v>
+        <v>1.015729459336659</v>
       </c>
       <c r="I5">
-        <v>1.160684705532755</v>
+        <v>0.8252165202205366</v>
       </c>
       <c r="J5">
-        <v>0.6866623577106727</v>
+        <v>1.065462042297899</v>
       </c>
       <c r="K5">
-        <v>1.55072942171161</v>
+        <v>0.9571016004522461</v>
       </c>
       <c r="L5">
-        <v>0.8298310633807513</v>
+        <v>1.975485615785543</v>
       </c>
       <c r="M5">
-        <v>0.758246710545712</v>
+        <v>1.378443986264462</v>
       </c>
       <c r="N5">
-        <v>0.758246710545712</v>
+        <v>1.378443986264462</v>
       </c>
       <c r="O5">
-        <v>0.8073274941668634</v>
+        <v>1.194034830916487</v>
       </c>
       <c r="P5">
-        <v>1.022407614267678</v>
+        <v>1.237996524327057</v>
       </c>
       <c r="Q5">
-        <v>1.022407614267678</v>
+        <v>1.237996524327057</v>
       </c>
       <c r="R5">
-        <v>1.154488066128661</v>
+        <v>1.167772793358354</v>
       </c>
       <c r="S5">
-        <v>1.154488066128661</v>
+        <v>1.167772793358354</v>
       </c>
       <c r="T5">
-        <v>1.056314016157836</v>
+        <v>1.103399599139377</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,58 +830,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.287836394245102</v>
+        <v>8.412050873613556</v>
       </c>
       <c r="D6">
-        <v>2.107395498622743</v>
+        <v>0.4221640665577652</v>
       </c>
       <c r="E6">
-        <v>0.8801269628989373</v>
+        <v>0.4495140827599044</v>
       </c>
       <c r="F6">
-        <v>1.287836394245102</v>
+        <v>0.4221640665577652</v>
       </c>
       <c r="G6">
-        <v>2.648071871987566</v>
+        <v>0.4495140827599044</v>
       </c>
       <c r="H6">
-        <v>0.7900946376189804</v>
+        <v>0.5138700219329398</v>
       </c>
       <c r="I6">
-        <v>0.9538348561730109</v>
+        <v>0.4449249396579124</v>
       </c>
       <c r="J6">
-        <v>2.107395498622743</v>
+        <v>0.8071659142790473</v>
       </c>
       <c r="K6">
-        <v>1.287836394245102</v>
+        <v>0.4495140827599044</v>
       </c>
       <c r="L6">
-        <v>0.8801269628989373</v>
+        <v>8.412050873613556</v>
       </c>
       <c r="M6">
-        <v>1.49376123076084</v>
+        <v>4.417107470085661</v>
       </c>
       <c r="N6">
-        <v>1.49376123076084</v>
+        <v>4.417107470085661</v>
       </c>
       <c r="O6">
-        <v>1.259205699713553</v>
+        <v>3.093046626609745</v>
       </c>
       <c r="P6">
-        <v>1.425119618588927</v>
+        <v>3.094576340977075</v>
       </c>
       <c r="Q6">
-        <v>1.425119618588927</v>
+        <v>3.094576340977075</v>
       </c>
       <c r="R6">
-        <v>1.390798812502971</v>
+        <v>2.433310776422783</v>
       </c>
       <c r="S6">
-        <v>1.390798812502971</v>
+        <v>2.433310776422783</v>
       </c>
       <c r="T6">
-        <v>1.44456003692439</v>
+        <v>1.841614983133521</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,58 +892,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.002196571635674</v>
+        <v>0.9749815713960986</v>
       </c>
       <c r="D7">
-        <v>0.9993436807909775</v>
+        <v>0.9499231926869247</v>
       </c>
       <c r="E7">
-        <v>1.012158587864616</v>
+        <v>1.051354417830963</v>
       </c>
       <c r="F7">
-        <v>1.002196571635674</v>
+        <v>0.9499231926869247</v>
       </c>
       <c r="G7">
-        <v>0.9989679694045381</v>
+        <v>1.051354417830963</v>
       </c>
       <c r="H7">
-        <v>0.998310189583881</v>
+        <v>1.062971090777251</v>
       </c>
       <c r="I7">
-        <v>0.9994549750758155</v>
+        <v>0.9691830146422652</v>
       </c>
       <c r="J7">
-        <v>0.9993436807909775</v>
+        <v>1.012773836199699</v>
       </c>
       <c r="K7">
-        <v>1.002196571635674</v>
+        <v>1.051354417830963</v>
       </c>
       <c r="L7">
-        <v>1.012158587864616</v>
+        <v>0.9749815713960986</v>
       </c>
       <c r="M7">
-        <v>1.005751134327797</v>
+        <v>0.9624523820415116</v>
       </c>
       <c r="N7">
-        <v>1.005751134327797</v>
+        <v>0.9624523820415116</v>
       </c>
       <c r="O7">
-        <v>1.003270819413158</v>
+        <v>0.9646959262417628</v>
       </c>
       <c r="P7">
-        <v>1.004566280097089</v>
+        <v>0.9920863939713289</v>
       </c>
       <c r="Q7">
-        <v>1.004566280097089</v>
+        <v>0.9920863939713288</v>
       </c>
       <c r="R7">
-        <v>1.003973852981735</v>
+        <v>1.006903399936237</v>
       </c>
       <c r="S7">
-        <v>1.003973852981735</v>
+        <v>1.006903399936237</v>
       </c>
       <c r="T7">
-        <v>1.001738662392584</v>
+        <v>1.003531187255534</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,58 +954,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.014257552818775</v>
+        <v>1.016636027902821</v>
       </c>
       <c r="D8">
-        <v>0.9964899026527956</v>
+        <v>1.00333356663297</v>
       </c>
       <c r="E8">
-        <v>1.025057486786624</v>
+        <v>1.03121118644751</v>
       </c>
       <c r="F8">
-        <v>1.014257552818775</v>
+        <v>1.00333356663297</v>
       </c>
       <c r="G8">
-        <v>0.9975897466643375</v>
+        <v>1.03121118644751</v>
       </c>
       <c r="H8">
-        <v>0.9976311508673557</v>
+        <v>0.9391010727329837</v>
       </c>
       <c r="I8">
-        <v>0.9971686592163647</v>
+        <v>1.006318434082488</v>
       </c>
       <c r="J8">
-        <v>0.9964899026527956</v>
+        <v>1.008538821404181</v>
       </c>
       <c r="K8">
-        <v>1.014257552818775</v>
+        <v>1.03121118644751</v>
       </c>
       <c r="L8">
-        <v>1.025057486786624</v>
+        <v>1.016636027902821</v>
       </c>
       <c r="M8">
-        <v>1.01077369471971</v>
+        <v>1.009984797267896</v>
       </c>
       <c r="N8">
-        <v>1.01077369471971</v>
+        <v>1.009984797267896</v>
       </c>
       <c r="O8">
-        <v>1.006392846768925</v>
+        <v>1.008762676206093</v>
       </c>
       <c r="P8">
-        <v>1.011934980752732</v>
+        <v>1.017060260327767</v>
       </c>
       <c r="Q8">
-        <v>1.011934980752732</v>
+        <v>1.017060260327767</v>
       </c>
       <c r="R8">
-        <v>1.012515623769243</v>
+        <v>1.020597991857703</v>
       </c>
       <c r="S8">
-        <v>1.012515623769243</v>
+        <v>1.020597991857703</v>
       </c>
       <c r="T8">
-        <v>1.004699083167709</v>
+        <v>1.000856518200492</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,58 +1016,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.05976855010072</v>
+        <v>0.9828423388664312</v>
       </c>
       <c r="D9">
-        <v>1.001232189149919</v>
+        <v>0.99296287225667</v>
       </c>
       <c r="E9">
-        <v>1.031726546931392</v>
+        <v>1.07217271135824</v>
       </c>
       <c r="F9">
-        <v>1.05976855010072</v>
+        <v>0.99296287225667</v>
       </c>
       <c r="G9">
-        <v>1.015937954466408</v>
+        <v>1.07217271135824</v>
       </c>
       <c r="H9">
-        <v>0.9984040964025578</v>
+        <v>1.172816940723907</v>
       </c>
       <c r="I9">
-        <v>0.9911883221053875</v>
+        <v>0.9410090113137383</v>
       </c>
       <c r="J9">
-        <v>1.001232189149919</v>
+        <v>1.009725142191717</v>
       </c>
       <c r="K9">
-        <v>1.05976855010072</v>
+        <v>1.07217271135824</v>
       </c>
       <c r="L9">
-        <v>1.031726546931392</v>
+        <v>0.9828423388664312</v>
       </c>
       <c r="M9">
-        <v>1.016479368040656</v>
+        <v>0.9879026055615506</v>
       </c>
       <c r="N9">
-        <v>1.016479368040656</v>
+        <v>0.9879026055615506</v>
       </c>
       <c r="O9">
-        <v>1.010454277494623</v>
+        <v>0.9722714074789466</v>
       </c>
       <c r="P9">
-        <v>1.030909095394011</v>
+        <v>1.015992640827114</v>
       </c>
       <c r="Q9">
-        <v>1.030909095394011</v>
+        <v>1.015992640827114</v>
       </c>
       <c r="R9">
-        <v>1.038123959070688</v>
+        <v>1.030037658459895</v>
       </c>
       <c r="S9">
-        <v>1.038123959070688</v>
+        <v>1.030037658459895</v>
       </c>
       <c r="T9">
-        <v>1.016376276526064</v>
+        <v>1.028588169451784</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1048,58 +1078,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.078710177938514</v>
+        <v>8.568486154636133</v>
       </c>
       <c r="D10">
-        <v>0.9850340071568779</v>
+        <v>0.3131882838635061</v>
       </c>
       <c r="E10">
-        <v>1.076738863273819</v>
+        <v>0.407643474950533</v>
       </c>
       <c r="F10">
-        <v>1.078710177938514</v>
+        <v>0.3131882838635061</v>
       </c>
       <c r="G10">
-        <v>1.01841472493443</v>
+        <v>0.407643474950533</v>
       </c>
       <c r="H10">
-        <v>0.9970730718799101</v>
+        <v>0.4676986066152579</v>
       </c>
       <c r="I10">
-        <v>1.005164951919189</v>
+        <v>0.4519121940375462</v>
       </c>
       <c r="J10">
-        <v>0.9850340071568779</v>
+        <v>0.8145524169705652</v>
       </c>
       <c r="K10">
-        <v>1.078710177938514</v>
+        <v>0.407643474950533</v>
       </c>
       <c r="L10">
-        <v>1.076738863273819</v>
+        <v>8.568486154636133</v>
       </c>
       <c r="M10">
-        <v>1.030886435215348</v>
+        <v>4.440837219249819</v>
       </c>
       <c r="N10">
-        <v>1.030886435215348</v>
+        <v>4.440837219249819</v>
       </c>
       <c r="O10">
-        <v>1.019615314103536</v>
+        <v>3.111195544179062</v>
       </c>
       <c r="P10">
-        <v>1.046827682789737</v>
+        <v>3.09643930448339</v>
       </c>
       <c r="Q10">
-        <v>1.046827682789737</v>
+        <v>3.096439304483391</v>
       </c>
       <c r="R10">
-        <v>1.054798306576931</v>
+        <v>2.424240347100176</v>
       </c>
       <c r="S10">
-        <v>1.054798306576931</v>
+        <v>2.424240347100176</v>
       </c>
       <c r="T10">
-        <v>1.02685596618379</v>
+        <v>1.837246855178924</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1110,58 +1140,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.259919146471686</v>
+        <v>1.015430376515215</v>
       </c>
       <c r="D11">
-        <v>0.810737025674218</v>
+        <v>0.7558949521993107</v>
       </c>
       <c r="E11">
-        <v>1.200142699022627</v>
+        <v>0.9012389362878361</v>
       </c>
       <c r="F11">
-        <v>1.259919146471686</v>
+        <v>0.7558949521993107</v>
       </c>
       <c r="G11">
-        <v>0.9929582167165013</v>
+        <v>0.9012389362878361</v>
       </c>
       <c r="H11">
-        <v>0.9163171049078496</v>
+        <v>2.454964487428292</v>
       </c>
       <c r="I11">
-        <v>1.013808777747072</v>
+        <v>0.8058251263421831</v>
       </c>
       <c r="J11">
-        <v>0.810737025674218</v>
+        <v>0.9785339564379717</v>
       </c>
       <c r="K11">
-        <v>1.259919146471686</v>
+        <v>0.9012389362878361</v>
       </c>
       <c r="L11">
-        <v>1.200142699022627</v>
+        <v>1.015430376515215</v>
       </c>
       <c r="M11">
-        <v>1.005439862348423</v>
+        <v>0.8856626643572627</v>
       </c>
       <c r="N11">
-        <v>1.005439862348423</v>
+        <v>0.8856626643572627</v>
       </c>
       <c r="O11">
-        <v>0.9757322765348982</v>
+        <v>0.8590501516855694</v>
       </c>
       <c r="P11">
-        <v>1.09026629038951</v>
+        <v>0.8908547550007873</v>
       </c>
       <c r="Q11">
-        <v>1.090266290389511</v>
+        <v>0.8908547550007873</v>
       </c>
       <c r="R11">
-        <v>1.132679504410054</v>
+        <v>0.8934508003225494</v>
       </c>
       <c r="S11">
-        <v>1.132679504410054</v>
+        <v>0.8934508003225494</v>
       </c>
       <c r="T11">
-        <v>1.032313828423326</v>
+        <v>1.151981305868468</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1172,58 +1202,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.06882009600946588</v>
+        <v>2.453648942056868</v>
       </c>
       <c r="D12">
-        <v>0.03059261043852909</v>
+        <v>0.6335804139327493</v>
       </c>
       <c r="E12">
-        <v>1.659197884936644</v>
+        <v>0.8285075630796073</v>
       </c>
       <c r="F12">
-        <v>0.06882009600946588</v>
+        <v>0.6335804139327493</v>
       </c>
       <c r="G12">
-        <v>0.04122312722736219</v>
+        <v>0.8285075630796073</v>
       </c>
       <c r="H12">
-        <v>1.40437412971678</v>
+        <v>0.9519883009163712</v>
       </c>
       <c r="I12">
-        <v>1.090143372045717</v>
+        <v>0.8637902045593242</v>
       </c>
       <c r="J12">
-        <v>0.03059261043852909</v>
+        <v>1.041035082820297</v>
       </c>
       <c r="K12">
-        <v>0.06882009600946588</v>
+        <v>0.8285075630796073</v>
       </c>
       <c r="L12">
-        <v>1.659197884936644</v>
+        <v>2.453648942056868</v>
       </c>
       <c r="M12">
-        <v>0.8448952476875864</v>
+        <v>1.543614677994809</v>
       </c>
       <c r="N12">
-        <v>0.8448952476875864</v>
+        <v>1.543614677994809</v>
       </c>
       <c r="O12">
-        <v>1.031388208363984</v>
+        <v>1.317006520182981</v>
       </c>
       <c r="P12">
-        <v>0.5862035304615462</v>
+        <v>1.305245639689742</v>
       </c>
       <c r="Q12">
-        <v>0.5862035304615463</v>
+        <v>1.305245639689742</v>
       </c>
       <c r="R12">
-        <v>0.4568576718485262</v>
+        <v>1.186061120537208</v>
       </c>
       <c r="S12">
-        <v>0.4568576718485262</v>
+        <v>1.186061120537208</v>
       </c>
       <c r="T12">
-        <v>0.7157252033957496</v>
+        <v>1.128758417894203</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,58 +1264,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.999800903482981</v>
+        <v>0.9923242978877145</v>
       </c>
       <c r="D13">
-        <v>2.837939515626966</v>
+        <v>0.8270514076199256</v>
       </c>
       <c r="E13">
-        <v>0.1471823070372633</v>
+        <v>0.9819274992944718</v>
       </c>
       <c r="F13">
-        <v>1.999800903482981</v>
+        <v>0.8270514076199256</v>
       </c>
       <c r="G13">
-        <v>2.109224680354407</v>
+        <v>0.9819274992944718</v>
       </c>
       <c r="H13">
-        <v>1.094889012079879</v>
+        <v>0.8799374194239474</v>
       </c>
       <c r="I13">
-        <v>0.8163691912149974</v>
+        <v>1.164306186233971</v>
       </c>
       <c r="J13">
-        <v>2.837939515626966</v>
+        <v>0.9551961738449745</v>
       </c>
       <c r="K13">
-        <v>1.999800903482981</v>
+        <v>0.9819274992944718</v>
       </c>
       <c r="L13">
-        <v>0.1471823070372633</v>
+        <v>0.9923242978877145</v>
       </c>
       <c r="M13">
-        <v>1.492560911332114</v>
+        <v>0.90968785275382</v>
       </c>
       <c r="N13">
-        <v>1.492560911332114</v>
+        <v>0.90968785275382</v>
       </c>
       <c r="O13">
-        <v>1.360003611581369</v>
+        <v>0.994560630580537</v>
       </c>
       <c r="P13">
-        <v>1.661640908715737</v>
+        <v>0.9337677349340373</v>
       </c>
       <c r="Q13">
-        <v>1.661640908715737</v>
+        <v>0.9337677349340373</v>
       </c>
       <c r="R13">
-        <v>1.746180907407548</v>
+        <v>0.9458076760241459</v>
       </c>
       <c r="S13">
-        <v>1.746180907407548</v>
+        <v>0.9458076760241459</v>
       </c>
       <c r="T13">
-        <v>1.500900934966082</v>
+        <v>0.9667904973841676</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1326,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.4599827724352962</v>
+        <v>15.18988100000001</v>
       </c>
       <c r="D14">
-        <v>0.7263006195540438</v>
+        <v>-0.006433271399999997</v>
       </c>
       <c r="E14">
-        <v>0.7819213021860815</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="F14">
-        <v>0.4599827724352962</v>
+        <v>-0.006433271399999997</v>
       </c>
       <c r="G14">
-        <v>2.048623797531584</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="H14">
-        <v>1.271455114279812</v>
+        <v>0.008037814299999994</v>
       </c>
       <c r="I14">
-        <v>1.037282074883116</v>
+        <v>0.0021216777</v>
       </c>
       <c r="J14">
-        <v>0.7263006195540438</v>
+        <v>0.5669483100000006</v>
       </c>
       <c r="K14">
-        <v>0.4599827724352962</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="L14">
-        <v>0.7819213021860815</v>
+        <v>15.18988100000001</v>
       </c>
       <c r="M14">
-        <v>0.7541109608700627</v>
+        <v>7.591723864300004</v>
       </c>
       <c r="N14">
-        <v>0.7541109608700627</v>
+        <v>7.591723864300004</v>
       </c>
       <c r="O14">
-        <v>0.9265590120066459</v>
+        <v>5.06185646876667</v>
       </c>
       <c r="P14">
-        <v>0.6560682313918073</v>
+        <v>5.060739385933336</v>
       </c>
       <c r="Q14">
-        <v>0.6560682313918073</v>
+        <v>5.060739385933336</v>
       </c>
       <c r="R14">
-        <v>0.6070468666526795</v>
+        <v>3.795247146750002</v>
       </c>
       <c r="S14">
-        <v>0.6070468666526795</v>
+        <v>3.795247146750002</v>
       </c>
       <c r="T14">
-        <v>1.054260946811656</v>
+        <v>2.626554326633335</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,58 +1388,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.4593586118978514</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="D15">
-        <v>0.0009743324530289156</v>
+        <v>0.0030969418</v>
       </c>
       <c r="E15">
-        <v>0.4843167545547961</v>
+        <v>30.381976</v>
       </c>
       <c r="F15">
-        <v>0.4593586118978514</v>
+        <v>0.0030969418</v>
       </c>
       <c r="G15">
-        <v>0.1189499464817591</v>
+        <v>30.381976</v>
       </c>
       <c r="H15">
-        <v>0.9058599653321883</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="I15">
-        <v>0.6152665044859895</v>
+        <v>0.0025420957</v>
       </c>
       <c r="J15">
-        <v>0.0009743324530289156</v>
+        <v>0.0037430372</v>
       </c>
       <c r="K15">
-        <v>0.4593586118978514</v>
+        <v>30.381976</v>
       </c>
       <c r="L15">
-        <v>0.4843167545547961</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="M15">
-        <v>0.2426455435039125</v>
+        <v>0.0009336855</v>
       </c>
       <c r="N15">
-        <v>0.2426455435039125</v>
+        <v>0.0009336855</v>
       </c>
       <c r="O15">
-        <v>0.4637170174466711</v>
+        <v>0.001469822233333333</v>
       </c>
       <c r="P15">
-        <v>0.3148832329685588</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="Q15">
-        <v>0.3148832329685588</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="R15">
-        <v>0.3510020777008819</v>
+        <v>15.19145484275</v>
       </c>
       <c r="S15">
-        <v>0.3510020777008819</v>
+        <v>15.19145484275</v>
       </c>
       <c r="T15">
-        <v>0.4307876858676022</v>
+        <v>5.0645560555</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.992550253994801</v>
+        <v>0.0080378143</v>
       </c>
       <c r="D16">
-        <v>1.000968960067055</v>
+        <v>0.0062360681</v>
       </c>
       <c r="E16">
-        <v>1.013183099933516</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="F16">
-        <v>0.992550253994801</v>
+        <v>0.0062360681</v>
       </c>
       <c r="G16">
-        <v>1.020168195904648</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="H16">
-        <v>1.000002400654316</v>
+        <v>45.564748</v>
       </c>
       <c r="I16">
-        <v>0.9951391432263118</v>
+        <v>-0.0020635991</v>
       </c>
       <c r="J16">
-        <v>1.000968960067055</v>
+        <v>-0.0055045519</v>
       </c>
       <c r="K16">
-        <v>0.992550253994801</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="L16">
-        <v>1.013183099933516</v>
+        <v>0.0080378143</v>
       </c>
       <c r="M16">
-        <v>1.007076030000286</v>
+        <v>0.0071369412</v>
       </c>
       <c r="N16">
-        <v>1.007076030000286</v>
+        <v>0.0071369412</v>
       </c>
       <c r="O16">
-        <v>1.004718153551629</v>
+        <v>0.004070094433333333</v>
       </c>
       <c r="P16">
-        <v>1.002234104665124</v>
+        <v>0.003827237166666667</v>
       </c>
       <c r="Q16">
-        <v>1.002234104665124</v>
+        <v>0.003827237166666666</v>
       </c>
       <c r="R16">
-        <v>0.9998131419975433</v>
+        <v>0.00217238515</v>
       </c>
       <c r="S16">
-        <v>0.9998131419975433</v>
+        <v>0.00217238515</v>
       </c>
       <c r="T16">
-        <v>1.003668675630108</v>
+        <v>7.59477692675</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.03121118644751</v>
+        <v>0.35303696</v>
       </c>
       <c r="D17">
-        <v>1.003333566632971</v>
+        <v>0.0026220267</v>
       </c>
       <c r="E17">
-        <v>1.016636027902822</v>
+        <v>7.056093</v>
       </c>
       <c r="F17">
-        <v>1.03121118644751</v>
+        <v>0.0026220267</v>
       </c>
       <c r="G17">
-        <v>0.9391010727329827</v>
+        <v>7.056093</v>
       </c>
       <c r="H17">
-        <v>1.006318434082489</v>
+        <v>-0.0045549688</v>
       </c>
       <c r="I17">
-        <v>1.008538821404181</v>
+        <v>0.006734231599999999</v>
       </c>
       <c r="J17">
-        <v>1.003333566632971</v>
+        <v>0.021406507</v>
       </c>
       <c r="K17">
-        <v>1.03121118644751</v>
+        <v>7.056093</v>
       </c>
       <c r="L17">
-        <v>1.016636027902822</v>
+        <v>0.35303696</v>
       </c>
       <c r="M17">
-        <v>1.009984797267896</v>
+        <v>0.17782949335</v>
       </c>
       <c r="N17">
-        <v>1.009984797267896</v>
+        <v>0.17782949335</v>
       </c>
       <c r="O17">
-        <v>1.008762676206094</v>
+        <v>0.1207977394333333</v>
       </c>
       <c r="P17">
-        <v>1.017060260327768</v>
+        <v>2.470583995566666</v>
       </c>
       <c r="Q17">
-        <v>1.017060260327768</v>
+        <v>2.470583995566666</v>
       </c>
       <c r="R17">
-        <v>1.020597991857703</v>
+        <v>3.616961246675</v>
       </c>
       <c r="S17">
-        <v>1.020597991857703</v>
+        <v>3.616961246675</v>
       </c>
       <c r="T17">
-        <v>1.000856518200493</v>
+        <v>1.239222959416667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.184395662269359</v>
+        <v>0.2775652097894795</v>
       </c>
       <c r="D18">
-        <v>1.011757208515753</v>
+        <v>0.001102575218739726</v>
       </c>
       <c r="E18">
-        <v>0.9822846942177368</v>
+        <v>2.191540842043397</v>
       </c>
       <c r="F18">
-        <v>1.184395662269359</v>
+        <v>0.001102575218739726</v>
       </c>
       <c r="G18">
-        <v>1.04797996533994</v>
+        <v>2.191540842043397</v>
       </c>
       <c r="H18">
-        <v>0.9624595493987876</v>
+        <v>2.65869690810263</v>
       </c>
       <c r="I18">
-        <v>0.9782552853948203</v>
+        <v>0.3895991182054246</v>
       </c>
       <c r="J18">
-        <v>1.011757208515753</v>
+        <v>1.196186042627398</v>
       </c>
       <c r="K18">
-        <v>1.184395662269359</v>
+        <v>2.191540842043397</v>
       </c>
       <c r="L18">
-        <v>0.9822846942177368</v>
+        <v>0.2775652097894795</v>
       </c>
       <c r="M18">
-        <v>0.9970209513667451</v>
+        <v>0.1393338925041096</v>
       </c>
       <c r="N18">
-        <v>0.9970209513667451</v>
+        <v>0.1393338925041096</v>
       </c>
       <c r="O18">
-        <v>0.9855004840440925</v>
+        <v>0.222755634404548</v>
       </c>
       <c r="P18">
-        <v>1.059479188334283</v>
+        <v>0.8234028756838723</v>
       </c>
       <c r="Q18">
-        <v>1.059479188334283</v>
+        <v>0.8234028756838723</v>
       </c>
       <c r="R18">
-        <v>1.090708306818052</v>
+        <v>1.165437367273753</v>
       </c>
       <c r="S18">
-        <v>1.090708306818052</v>
+        <v>1.165437367273753</v>
       </c>
       <c r="T18">
-        <v>1.0278553941894</v>
+        <v>1.119115115997845</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.155993451257065</v>
+        <v>2.105215041947895</v>
       </c>
       <c r="D19">
-        <v>0.9132214845478036</v>
+        <v>3.406934172489474</v>
       </c>
       <c r="E19">
-        <v>1.052223374503082</v>
+        <v>1.704390356332631</v>
       </c>
       <c r="F19">
-        <v>1.155993451257065</v>
+        <v>3.406934172489474</v>
       </c>
       <c r="G19">
-        <v>1.055858053697589</v>
+        <v>1.704390356332631</v>
       </c>
       <c r="H19">
-        <v>0.8811897003167057</v>
+        <v>6.308808240799999</v>
       </c>
       <c r="I19">
-        <v>0.9872646853254077</v>
+        <v>0.03203717419426315</v>
       </c>
       <c r="J19">
-        <v>0.9132214845478036</v>
+        <v>0.1417101781263158</v>
       </c>
       <c r="K19">
-        <v>1.155993451257065</v>
+        <v>1.704390356332631</v>
       </c>
       <c r="L19">
-        <v>1.052223374503082</v>
+        <v>2.105215041947895</v>
       </c>
       <c r="M19">
-        <v>0.9827224295254429</v>
+        <v>2.756074607218684</v>
       </c>
       <c r="N19">
-        <v>0.9827224295254429</v>
+        <v>2.756074607218684</v>
       </c>
       <c r="O19">
-        <v>0.9488781864558637</v>
+        <v>1.848062129543877</v>
       </c>
       <c r="P19">
-        <v>1.040479436769317</v>
+        <v>2.405513190256666</v>
       </c>
       <c r="Q19">
-        <v>1.040479436769317</v>
+        <v>2.405513190256667</v>
       </c>
       <c r="R19">
-        <v>1.069357940391254</v>
+        <v>2.230232481775658</v>
       </c>
       <c r="S19">
-        <v>1.069357940391254</v>
+        <v>2.230232481775658</v>
       </c>
       <c r="T19">
-        <v>1.007625124941275</v>
+        <v>2.283182527315096</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>2.953486431123686</v>
+      </c>
+      <c r="D20">
+        <v>-0.001297981805263158</v>
+      </c>
+      <c r="E20">
+        <v>5.909017656742106</v>
+      </c>
+      <c r="F20">
+        <v>-0.001297981805263158</v>
+      </c>
+      <c r="G20">
+        <v>5.909017656742106</v>
+      </c>
+      <c r="H20">
+        <v>0.001325737894736841</v>
+      </c>
+      <c r="I20">
+        <v>-0.0002393559737894737</v>
+      </c>
+      <c r="J20">
+        <v>2.571007063757894</v>
+      </c>
+      <c r="K20">
+        <v>5.909017656742106</v>
+      </c>
+      <c r="L20">
+        <v>2.953486431123686</v>
+      </c>
+      <c r="M20">
+        <v>1.476094224659211</v>
+      </c>
+      <c r="N20">
+        <v>1.476094224659211</v>
+      </c>
+      <c r="O20">
+        <v>0.9839830311148777</v>
+      </c>
+      <c r="P20">
+        <v>2.953735368686843</v>
+      </c>
+      <c r="Q20">
+        <v>2.953735368686843</v>
+      </c>
+      <c r="R20">
+        <v>3.692555940700658</v>
+      </c>
+      <c r="S20">
+        <v>3.692555940700658</v>
+      </c>
+      <c r="T20">
+        <v>1.905549925289895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.7819213021860811</v>
+      </c>
+      <c r="D21">
+        <v>0.7263006195540443</v>
+      </c>
+      <c r="E21">
+        <v>0.4599827724352957</v>
+      </c>
+      <c r="F21">
+        <v>0.7263006195540443</v>
+      </c>
+      <c r="G21">
+        <v>0.4599827724352957</v>
+      </c>
+      <c r="H21">
+        <v>2.048623797531584</v>
+      </c>
+      <c r="I21">
+        <v>1.271455114279812</v>
+      </c>
+      <c r="J21">
+        <v>1.037282074883116</v>
+      </c>
+      <c r="K21">
+        <v>0.4599827724352957</v>
+      </c>
+      <c r="L21">
+        <v>0.7819213021860811</v>
+      </c>
+      <c r="M21">
+        <v>0.7541109608700627</v>
+      </c>
+      <c r="N21">
+        <v>0.7541109608700627</v>
+      </c>
+      <c r="O21">
+        <v>0.9265590120066457</v>
+      </c>
+      <c r="P21">
+        <v>0.656068231391807</v>
+      </c>
+      <c r="Q21">
+        <v>0.656068231391807</v>
+      </c>
+      <c r="R21">
+        <v>0.6070468666526793</v>
+      </c>
+      <c r="S21">
+        <v>0.6070468666526793</v>
+      </c>
+      <c r="T21">
+        <v>1.054260946811655</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.4843167545547961</v>
+      </c>
+      <c r="D22">
+        <v>0.0009743324530289159</v>
+      </c>
+      <c r="E22">
+        <v>0.4593586118978514</v>
+      </c>
+      <c r="F22">
+        <v>0.0009743324530289159</v>
+      </c>
+      <c r="G22">
+        <v>0.4593586118978514</v>
+      </c>
+      <c r="H22">
+        <v>0.1189499464817591</v>
+      </c>
+      <c r="I22">
+        <v>0.905859965332188</v>
+      </c>
+      <c r="J22">
+        <v>0.6152665044859895</v>
+      </c>
+      <c r="K22">
+        <v>0.4593586118978514</v>
+      </c>
+      <c r="L22">
+        <v>0.4843167545547961</v>
+      </c>
+      <c r="M22">
+        <v>0.2426455435039125</v>
+      </c>
+      <c r="N22">
+        <v>0.2426455435039125</v>
+      </c>
+      <c r="O22">
+        <v>0.463717017446671</v>
+      </c>
+      <c r="P22">
+        <v>0.3148832329685589</v>
+      </c>
+      <c r="Q22">
+        <v>0.3148832329685589</v>
+      </c>
+      <c r="R22">
+        <v>0.351002077700882</v>
+      </c>
+      <c r="S22">
+        <v>0.351002077700882</v>
+      </c>
+      <c r="T22">
+        <v>0.4307876858676021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.659197884936643</v>
+      </c>
+      <c r="D23">
+        <v>0.03059261043852909</v>
+      </c>
+      <c r="E23">
+        <v>0.06882009600946588</v>
+      </c>
+      <c r="F23">
+        <v>0.03059261043852909</v>
+      </c>
+      <c r="G23">
+        <v>0.06882009600946588</v>
+      </c>
+      <c r="H23">
+        <v>0.04122312722736213</v>
+      </c>
+      <c r="I23">
+        <v>1.404374129716781</v>
+      </c>
+      <c r="J23">
+        <v>1.090143372045717</v>
+      </c>
+      <c r="K23">
+        <v>0.06882009600946588</v>
+      </c>
+      <c r="L23">
+        <v>1.659197884936643</v>
+      </c>
+      <c r="M23">
+        <v>0.8448952476875862</v>
+      </c>
+      <c r="N23">
+        <v>0.8448952476875862</v>
+      </c>
+      <c r="O23">
+        <v>1.031388208363984</v>
+      </c>
+      <c r="P23">
+        <v>0.5862035304615461</v>
+      </c>
+      <c r="Q23">
+        <v>0.5862035304615462</v>
+      </c>
+      <c r="R23">
+        <v>0.456857671848526</v>
+      </c>
+      <c r="S23">
+        <v>0.456857671848526</v>
+      </c>
+      <c r="T23">
+        <v>0.7157252033957496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.1471823070372633</v>
+      </c>
+      <c r="D24">
+        <v>2.837939515626966</v>
+      </c>
+      <c r="E24">
+        <v>1.999800903482981</v>
+      </c>
+      <c r="F24">
+        <v>2.837939515626966</v>
+      </c>
+      <c r="G24">
+        <v>1.999800903482981</v>
+      </c>
+      <c r="H24">
+        <v>2.109224680354409</v>
+      </c>
+      <c r="I24">
+        <v>1.094889012079879</v>
+      </c>
+      <c r="J24">
+        <v>0.8163691912149976</v>
+      </c>
+      <c r="K24">
+        <v>1.999800903482981</v>
+      </c>
+      <c r="L24">
+        <v>0.1471823070372633</v>
+      </c>
+      <c r="M24">
+        <v>1.492560911332115</v>
+      </c>
+      <c r="N24">
+        <v>1.492560911332115</v>
+      </c>
+      <c r="O24">
+        <v>1.360003611581369</v>
+      </c>
+      <c r="P24">
+        <v>1.661640908715737</v>
+      </c>
+      <c r="Q24">
+        <v>1.661640908715737</v>
+      </c>
+      <c r="R24">
+        <v>1.746180907407548</v>
+      </c>
+      <c r="S24">
+        <v>1.746180907407548</v>
+      </c>
+      <c r="T24">
+        <v>1.500900934966083</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.04551485143465682</v>
+      </c>
+      <c r="D25">
+        <v>0.0003641079264252354</v>
+      </c>
+      <c r="E25">
+        <v>1.862018380960427</v>
+      </c>
+      <c r="F25">
+        <v>0.0003641079264252354</v>
+      </c>
+      <c r="G25">
+        <v>1.862018380960427</v>
+      </c>
+      <c r="H25">
+        <v>0.0001210995082258332</v>
+      </c>
+      <c r="I25">
+        <v>0.05078285634639948</v>
+      </c>
+      <c r="J25">
+        <v>1.277468539084899</v>
+      </c>
+      <c r="K25">
+        <v>1.862018380960427</v>
+      </c>
+      <c r="L25">
+        <v>0.04551485143465682</v>
+      </c>
+      <c r="M25">
+        <v>0.02293947968054103</v>
+      </c>
+      <c r="N25">
+        <v>0.02293947968054103</v>
+      </c>
+      <c r="O25">
+        <v>0.03222060523582718</v>
+      </c>
+      <c r="P25">
+        <v>0.6359657801071696</v>
+      </c>
+      <c r="Q25">
+        <v>0.6359657801071696</v>
+      </c>
+      <c r="R25">
+        <v>0.9424789303204839</v>
+      </c>
+      <c r="S25">
+        <v>0.9424789303204839</v>
+      </c>
+      <c r="T25">
+        <v>0.5393783058768388</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>2.194373310456809</v>
+      </c>
+      <c r="D26">
+        <v>0.005992967822641251</v>
+      </c>
+      <c r="E26">
+        <v>1.48616355596354E-05</v>
+      </c>
+      <c r="F26">
+        <v>0.005992967822641251</v>
+      </c>
+      <c r="G26">
+        <v>1.48616355596354E-05</v>
+      </c>
+      <c r="H26">
+        <v>1.292503516167134</v>
+      </c>
+      <c r="I26">
+        <v>1.52851025928105</v>
+      </c>
+      <c r="J26">
+        <v>1.002902977702781</v>
+      </c>
+      <c r="K26">
+        <v>1.48616355596354E-05</v>
+      </c>
+      <c r="L26">
+        <v>2.194373310456809</v>
+      </c>
+      <c r="M26">
+        <v>1.100183139139725</v>
+      </c>
+      <c r="N26">
+        <v>1.100183139139725</v>
+      </c>
+      <c r="O26">
+        <v>1.2429588458535</v>
+      </c>
+      <c r="P26">
+        <v>0.73346037997167</v>
+      </c>
+      <c r="Q26">
+        <v>0.7334603799716701</v>
+      </c>
+      <c r="R26">
+        <v>0.5500990003876425</v>
+      </c>
+      <c r="S26">
+        <v>0.5500990003876425</v>
+      </c>
+      <c r="T26">
+        <v>1.004049648844329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>2.1954429681681</v>
+      </c>
+      <c r="D27">
+        <v>3.862162550714233</v>
+      </c>
+      <c r="E27">
+        <v>3.406042933391579</v>
+      </c>
+      <c r="F27">
+        <v>3.862162550714233</v>
+      </c>
+      <c r="G27">
+        <v>3.406042933391579</v>
+      </c>
+      <c r="H27">
+        <v>0.1112042285159213</v>
+      </c>
+      <c r="I27">
+        <v>0.3296108323565563</v>
+      </c>
+      <c r="J27">
+        <v>1.72937990097938</v>
+      </c>
+      <c r="K27">
+        <v>3.406042933391579</v>
+      </c>
+      <c r="L27">
+        <v>2.1954429681681</v>
+      </c>
+      <c r="M27">
+        <v>3.028802759441167</v>
+      </c>
+      <c r="N27">
+        <v>3.028802759441167</v>
+      </c>
+      <c r="O27">
+        <v>2.12907211707963</v>
+      </c>
+      <c r="P27">
+        <v>3.154549484091304</v>
+      </c>
+      <c r="Q27">
+        <v>3.154549484091304</v>
+      </c>
+      <c r="R27">
+        <v>3.217422846416373</v>
+      </c>
+      <c r="S27">
+        <v>3.217422846416373</v>
+      </c>
+      <c r="T27">
+        <v>1.938973902354295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.990455708348197</v>
+      </c>
+      <c r="D28">
+        <v>0.0205491510930484</v>
+      </c>
+      <c r="E28">
+        <v>4.935395875863263</v>
+      </c>
+      <c r="F28">
+        <v>0.0205491510930484</v>
+      </c>
+      <c r="G28">
+        <v>4.935395875863263</v>
+      </c>
+      <c r="H28">
+        <v>0.3645914286985004</v>
+      </c>
+      <c r="I28">
+        <v>1.583639468879702</v>
+      </c>
+      <c r="J28">
+        <v>0.6525765321215855</v>
+      </c>
+      <c r="K28">
+        <v>4.935395875863263</v>
+      </c>
+      <c r="L28">
+        <v>1.990455708348197</v>
+      </c>
+      <c r="M28">
+        <v>1.005502429720623</v>
+      </c>
+      <c r="N28">
+        <v>1.005502429720623</v>
+      </c>
+      <c r="O28">
+        <v>1.198214776106982</v>
+      </c>
+      <c r="P28">
+        <v>2.31546691176817</v>
+      </c>
+      <c r="Q28">
+        <v>2.31546691176817</v>
+      </c>
+      <c r="R28">
+        <v>2.970449152791943</v>
+      </c>
+      <c r="S28">
+        <v>2.970449152791943</v>
+      </c>
+      <c r="T28">
+        <v>1.591201360834049</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.543519114602344</v>
+      </c>
+      <c r="D29">
+        <v>0.04551787753869532</v>
+      </c>
+      <c r="E29">
+        <v>10.74472589727058</v>
+      </c>
+      <c r="F29">
+        <v>0.04551787753869532</v>
+      </c>
+      <c r="G29">
+        <v>10.74472589727058</v>
+      </c>
+      <c r="H29">
+        <v>0.3666079051996036</v>
+      </c>
+      <c r="I29">
+        <v>2.057630820218257</v>
+      </c>
+      <c r="J29">
+        <v>0.08491595797868635</v>
+      </c>
+      <c r="K29">
+        <v>10.74472589727058</v>
+      </c>
+      <c r="L29">
+        <v>1.543519114602344</v>
+      </c>
+      <c r="M29">
+        <v>0.7945184960705195</v>
+      </c>
+      <c r="N29">
+        <v>0.7945184960705195</v>
+      </c>
+      <c r="O29">
+        <v>1.215555937453099</v>
+      </c>
+      <c r="P29">
+        <v>4.11125429647054</v>
+      </c>
+      <c r="Q29">
+        <v>4.11125429647054</v>
+      </c>
+      <c r="R29">
+        <v>5.769622196670551</v>
+      </c>
+      <c r="S29">
+        <v>5.769622196670551</v>
+      </c>
+      <c r="T29">
+        <v>2.473819595468028</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.044424204754068</v>
+        <v>1.664122778923714</v>
       </c>
       <c r="D4">
-        <v>0.8424642276897281</v>
+        <v>0.8351685488412035</v>
       </c>
       <c r="E4">
-        <v>0.8945712378027499</v>
+        <v>0.8458173087823408</v>
       </c>
       <c r="F4">
-        <v>0.8424642276897281</v>
+        <v>0.8351685488412035</v>
       </c>
       <c r="G4">
-        <v>0.8945712378027499</v>
+        <v>0.8458173087823408</v>
       </c>
       <c r="H4">
-        <v>2.515727651784221</v>
+        <v>1.0248285967915</v>
       </c>
       <c r="I4">
-        <v>0.7950311478521616</v>
+        <v>0.8729263877254405</v>
       </c>
       <c r="J4">
-        <v>0.9563132136788391</v>
+        <v>1.05523721627679</v>
       </c>
       <c r="K4">
-        <v>0.8945712378027499</v>
+        <v>0.8458173087823408</v>
       </c>
       <c r="L4">
-        <v>1.044424204754068</v>
+        <v>1.664122778923714</v>
       </c>
       <c r="M4">
-        <v>0.9434442162218981</v>
+        <v>1.249645663882459</v>
       </c>
       <c r="N4">
-        <v>0.9434442162218981</v>
+        <v>1.249645663882459</v>
       </c>
       <c r="O4">
-        <v>0.8939731934319859</v>
+        <v>1.124072571830119</v>
       </c>
       <c r="P4">
-        <v>0.9271532234155154</v>
+        <v>1.11503621218242</v>
       </c>
       <c r="Q4">
-        <v>0.9271532234155154</v>
+        <v>1.11503621218242</v>
       </c>
       <c r="R4">
-        <v>0.919007727012324</v>
+        <v>1.0477314863324</v>
       </c>
       <c r="S4">
-        <v>0.919007727012324</v>
+        <v>1.0477314863324</v>
       </c>
       <c r="T4">
-        <v>1.174755280593628</v>
+        <v>1.049683472890165</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.975485615785543</v>
+        <v>2.247415102464914</v>
       </c>
       <c r="D5">
-        <v>0.781402356743381</v>
+        <v>-0.001104229923762564</v>
       </c>
       <c r="E5">
-        <v>0.9571016004522461</v>
+        <v>5.775057878819809</v>
       </c>
       <c r="F5">
-        <v>0.781402356743381</v>
+        <v>-0.001104229923762564</v>
       </c>
       <c r="G5">
-        <v>0.9571016004522461</v>
+        <v>5.775057878819809</v>
       </c>
       <c r="H5">
-        <v>1.015729459336659</v>
+        <v>0.001125575848913384</v>
       </c>
       <c r="I5">
-        <v>0.8252165202205366</v>
+        <v>-0.0003760858631977399</v>
       </c>
       <c r="J5">
-        <v>1.065462042297899</v>
+        <v>2.732214011179539</v>
       </c>
       <c r="K5">
-        <v>0.9571016004522461</v>
+        <v>5.775057878819809</v>
       </c>
       <c r="L5">
-        <v>1.975485615785543</v>
+        <v>2.247415102464914</v>
       </c>
       <c r="M5">
-        <v>1.378443986264462</v>
+        <v>1.123155436270576</v>
       </c>
       <c r="N5">
-        <v>1.378443986264462</v>
+        <v>1.123155436270576</v>
       </c>
       <c r="O5">
-        <v>1.194034830916487</v>
+        <v>0.7486449288926513</v>
       </c>
       <c r="P5">
-        <v>1.237996524327057</v>
+        <v>2.673789583786987</v>
       </c>
       <c r="Q5">
-        <v>1.237996524327057</v>
+        <v>2.673789583786987</v>
       </c>
       <c r="R5">
-        <v>1.167772793358354</v>
+        <v>3.449106657545192</v>
       </c>
       <c r="S5">
-        <v>1.167772793358354</v>
+        <v>3.449106657545192</v>
       </c>
       <c r="T5">
-        <v>1.103399599139377</v>
+        <v>1.792388708754369</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>8.412050873613556</v>
+        <v>1.044424204754068</v>
       </c>
       <c r="D6">
-        <v>0.4221640665577652</v>
+        <v>0.8424642276897281</v>
       </c>
       <c r="E6">
-        <v>0.4495140827599044</v>
+        <v>0.8945712378027499</v>
       </c>
       <c r="F6">
-        <v>0.4221640665577652</v>
+        <v>0.8424642276897281</v>
       </c>
       <c r="G6">
-        <v>0.4495140827599044</v>
+        <v>0.8945712378027499</v>
       </c>
       <c r="H6">
-        <v>0.5138700219329398</v>
+        <v>2.515727651784221</v>
       </c>
       <c r="I6">
-        <v>0.4449249396579124</v>
+        <v>0.7950311478521616</v>
       </c>
       <c r="J6">
-        <v>0.8071659142790473</v>
+        <v>0.9563132136788391</v>
       </c>
       <c r="K6">
-        <v>0.4495140827599044</v>
+        <v>0.8945712378027499</v>
       </c>
       <c r="L6">
-        <v>8.412050873613556</v>
+        <v>1.044424204754068</v>
       </c>
       <c r="M6">
-        <v>4.417107470085661</v>
+        <v>0.9434442162218981</v>
       </c>
       <c r="N6">
-        <v>4.417107470085661</v>
+        <v>0.9434442162218981</v>
       </c>
       <c r="O6">
-        <v>3.093046626609745</v>
+        <v>0.8939731934319859</v>
       </c>
       <c r="P6">
-        <v>3.094576340977075</v>
+        <v>0.9271532234155154</v>
       </c>
       <c r="Q6">
-        <v>3.094576340977075</v>
+        <v>0.9271532234155154</v>
       </c>
       <c r="R6">
-        <v>2.433310776422783</v>
+        <v>0.919007727012324</v>
       </c>
       <c r="S6">
-        <v>2.433310776422783</v>
+        <v>0.919007727012324</v>
       </c>
       <c r="T6">
-        <v>1.841614983133521</v>
+        <v>1.174755280593628</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9749815713960986</v>
+        <v>1.975485615785543</v>
       </c>
       <c r="D7">
-        <v>0.9499231926869247</v>
+        <v>0.781402356743381</v>
       </c>
       <c r="E7">
-        <v>1.051354417830963</v>
+        <v>0.9571016004522461</v>
       </c>
       <c r="F7">
-        <v>0.9499231926869247</v>
+        <v>0.781402356743381</v>
       </c>
       <c r="G7">
-        <v>1.051354417830963</v>
+        <v>0.9571016004522461</v>
       </c>
       <c r="H7">
-        <v>1.062971090777251</v>
+        <v>1.015729459336659</v>
       </c>
       <c r="I7">
-        <v>0.9691830146422652</v>
+        <v>0.8252165202205366</v>
       </c>
       <c r="J7">
-        <v>1.012773836199699</v>
+        <v>1.065462042297899</v>
       </c>
       <c r="K7">
-        <v>1.051354417830963</v>
+        <v>0.9571016004522461</v>
       </c>
       <c r="L7">
-        <v>0.9749815713960986</v>
+        <v>1.975485615785543</v>
       </c>
       <c r="M7">
-        <v>0.9624523820415116</v>
+        <v>1.378443986264462</v>
       </c>
       <c r="N7">
-        <v>0.9624523820415116</v>
+        <v>1.378443986264462</v>
       </c>
       <c r="O7">
-        <v>0.9646959262417628</v>
+        <v>1.194034830916487</v>
       </c>
       <c r="P7">
-        <v>0.9920863939713289</v>
+        <v>1.237996524327057</v>
       </c>
       <c r="Q7">
-        <v>0.9920863939713288</v>
+        <v>1.237996524327057</v>
       </c>
       <c r="R7">
-        <v>1.006903399936237</v>
+        <v>1.167772793358354</v>
       </c>
       <c r="S7">
-        <v>1.006903399936237</v>
+        <v>1.167772793358354</v>
       </c>
       <c r="T7">
-        <v>1.003531187255534</v>
+        <v>1.103399599139377</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.016636027902821</v>
+        <v>8.412050873613556</v>
       </c>
       <c r="D8">
-        <v>1.00333356663297</v>
+        <v>0.4221640665577652</v>
       </c>
       <c r="E8">
-        <v>1.03121118644751</v>
+        <v>0.4495140827599044</v>
       </c>
       <c r="F8">
-        <v>1.00333356663297</v>
+        <v>0.4221640665577652</v>
       </c>
       <c r="G8">
-        <v>1.03121118644751</v>
+        <v>0.4495140827599044</v>
       </c>
       <c r="H8">
-        <v>0.9391010727329837</v>
+        <v>0.5138700219329398</v>
       </c>
       <c r="I8">
-        <v>1.006318434082488</v>
+        <v>0.4449249396579124</v>
       </c>
       <c r="J8">
-        <v>1.008538821404181</v>
+        <v>0.8071659142790473</v>
       </c>
       <c r="K8">
-        <v>1.03121118644751</v>
+        <v>0.4495140827599044</v>
       </c>
       <c r="L8">
-        <v>1.016636027902821</v>
+        <v>8.412050873613556</v>
       </c>
       <c r="M8">
-        <v>1.009984797267896</v>
+        <v>4.417107470085661</v>
       </c>
       <c r="N8">
-        <v>1.009984797267896</v>
+        <v>4.417107470085661</v>
       </c>
       <c r="O8">
-        <v>1.008762676206093</v>
+        <v>3.093046626609745</v>
       </c>
       <c r="P8">
-        <v>1.017060260327767</v>
+        <v>3.094576340977075</v>
       </c>
       <c r="Q8">
-        <v>1.017060260327767</v>
+        <v>3.094576340977075</v>
       </c>
       <c r="R8">
-        <v>1.020597991857703</v>
+        <v>2.433310776422783</v>
       </c>
       <c r="S8">
-        <v>1.020597991857703</v>
+        <v>2.433310776422783</v>
       </c>
       <c r="T8">
-        <v>1.000856518200492</v>
+        <v>1.841614983133521</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9828423388664312</v>
+        <v>0.9749815713960986</v>
       </c>
       <c r="D9">
-        <v>0.99296287225667</v>
+        <v>0.9499231926869247</v>
       </c>
       <c r="E9">
-        <v>1.07217271135824</v>
+        <v>1.051354417830963</v>
       </c>
       <c r="F9">
-        <v>0.99296287225667</v>
+        <v>0.9499231926869247</v>
       </c>
       <c r="G9">
-        <v>1.07217271135824</v>
+        <v>1.051354417830963</v>
       </c>
       <c r="H9">
-        <v>1.172816940723907</v>
+        <v>1.062971090777251</v>
       </c>
       <c r="I9">
-        <v>0.9410090113137383</v>
+        <v>0.9691830146422652</v>
       </c>
       <c r="J9">
-        <v>1.009725142191717</v>
+        <v>1.012773836199699</v>
       </c>
       <c r="K9">
-        <v>1.07217271135824</v>
+        <v>1.051354417830963</v>
       </c>
       <c r="L9">
-        <v>0.9828423388664312</v>
+        <v>0.9749815713960986</v>
       </c>
       <c r="M9">
-        <v>0.9879026055615506</v>
+        <v>0.9624523820415116</v>
       </c>
       <c r="N9">
-        <v>0.9879026055615506</v>
+        <v>0.9624523820415116</v>
       </c>
       <c r="O9">
-        <v>0.9722714074789466</v>
+        <v>0.9646959262417628</v>
       </c>
       <c r="P9">
-        <v>1.015992640827114</v>
+        <v>0.9920863939713289</v>
       </c>
       <c r="Q9">
-        <v>1.015992640827114</v>
+        <v>0.9920863939713288</v>
       </c>
       <c r="R9">
-        <v>1.030037658459895</v>
+        <v>1.006903399936237</v>
       </c>
       <c r="S9">
-        <v>1.030037658459895</v>
+        <v>1.006903399936237</v>
       </c>
       <c r="T9">
-        <v>1.028588169451784</v>
+        <v>1.003531187255534</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>8.568486154636133</v>
+        <v>1.016636027902821</v>
       </c>
       <c r="D10">
-        <v>0.3131882838635061</v>
+        <v>1.00333356663297</v>
       </c>
       <c r="E10">
-        <v>0.407643474950533</v>
+        <v>1.03121118644751</v>
       </c>
       <c r="F10">
-        <v>0.3131882838635061</v>
+        <v>1.00333356663297</v>
       </c>
       <c r="G10">
-        <v>0.407643474950533</v>
+        <v>1.03121118644751</v>
       </c>
       <c r="H10">
-        <v>0.4676986066152579</v>
+        <v>0.9391010727329837</v>
       </c>
       <c r="I10">
-        <v>0.4519121940375462</v>
+        <v>1.006318434082488</v>
       </c>
       <c r="J10">
-        <v>0.8145524169705652</v>
+        <v>1.008538821404181</v>
       </c>
       <c r="K10">
-        <v>0.407643474950533</v>
+        <v>1.03121118644751</v>
       </c>
       <c r="L10">
-        <v>8.568486154636133</v>
+        <v>1.016636027902821</v>
       </c>
       <c r="M10">
-        <v>4.440837219249819</v>
+        <v>1.009984797267896</v>
       </c>
       <c r="N10">
-        <v>4.440837219249819</v>
+        <v>1.009984797267896</v>
       </c>
       <c r="O10">
-        <v>3.111195544179062</v>
+        <v>1.008762676206093</v>
       </c>
       <c r="P10">
-        <v>3.09643930448339</v>
+        <v>1.017060260327767</v>
       </c>
       <c r="Q10">
-        <v>3.096439304483391</v>
+        <v>1.017060260327767</v>
       </c>
       <c r="R10">
-        <v>2.424240347100176</v>
+        <v>1.020597991857703</v>
       </c>
       <c r="S10">
-        <v>2.424240347100176</v>
+        <v>1.020597991857703</v>
       </c>
       <c r="T10">
-        <v>1.837246855178924</v>
+        <v>1.000856518200492</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.015430376515215</v>
+        <v>0.9828423388664312</v>
       </c>
       <c r="D11">
-        <v>0.7558949521993107</v>
+        <v>0.99296287225667</v>
       </c>
       <c r="E11">
-        <v>0.9012389362878361</v>
+        <v>1.07217271135824</v>
       </c>
       <c r="F11">
-        <v>0.7558949521993107</v>
+        <v>0.99296287225667</v>
       </c>
       <c r="G11">
-        <v>0.9012389362878361</v>
+        <v>1.07217271135824</v>
       </c>
       <c r="H11">
-        <v>2.454964487428292</v>
+        <v>1.172816940723907</v>
       </c>
       <c r="I11">
-        <v>0.8058251263421831</v>
+        <v>0.9410090113137383</v>
       </c>
       <c r="J11">
-        <v>0.9785339564379717</v>
+        <v>1.009725142191717</v>
       </c>
       <c r="K11">
-        <v>0.9012389362878361</v>
+        <v>1.07217271135824</v>
       </c>
       <c r="L11">
-        <v>1.015430376515215</v>
+        <v>0.9828423388664312</v>
       </c>
       <c r="M11">
-        <v>0.8856626643572627</v>
+        <v>0.9879026055615506</v>
       </c>
       <c r="N11">
-        <v>0.8856626643572627</v>
+        <v>0.9879026055615506</v>
       </c>
       <c r="O11">
-        <v>0.8590501516855694</v>
+        <v>0.9722714074789466</v>
       </c>
       <c r="P11">
-        <v>0.8908547550007873</v>
+        <v>1.015992640827114</v>
       </c>
       <c r="Q11">
-        <v>0.8908547550007873</v>
+        <v>1.015992640827114</v>
       </c>
       <c r="R11">
-        <v>0.8934508003225494</v>
+        <v>1.030037658459895</v>
       </c>
       <c r="S11">
-        <v>0.8934508003225494</v>
+        <v>1.030037658459895</v>
       </c>
       <c r="T11">
-        <v>1.151981305868468</v>
+        <v>1.028588169451784</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2.453648942056868</v>
+        <v>8.568486154636133</v>
       </c>
       <c r="D12">
-        <v>0.6335804139327493</v>
+        <v>0.3131882838635061</v>
       </c>
       <c r="E12">
-        <v>0.8285075630796073</v>
+        <v>0.407643474950533</v>
       </c>
       <c r="F12">
-        <v>0.6335804139327493</v>
+        <v>0.3131882838635061</v>
       </c>
       <c r="G12">
-        <v>0.8285075630796073</v>
+        <v>0.407643474950533</v>
       </c>
       <c r="H12">
-        <v>0.9519883009163712</v>
+        <v>0.4676986066152579</v>
       </c>
       <c r="I12">
-        <v>0.8637902045593242</v>
+        <v>0.4519121940375462</v>
       </c>
       <c r="J12">
-        <v>1.041035082820297</v>
+        <v>0.8145524169705652</v>
       </c>
       <c r="K12">
-        <v>0.8285075630796073</v>
+        <v>0.407643474950533</v>
       </c>
       <c r="L12">
-        <v>2.453648942056868</v>
+        <v>8.568486154636133</v>
       </c>
       <c r="M12">
-        <v>1.543614677994809</v>
+        <v>4.440837219249819</v>
       </c>
       <c r="N12">
-        <v>1.543614677994809</v>
+        <v>4.440837219249819</v>
       </c>
       <c r="O12">
-        <v>1.317006520182981</v>
+        <v>3.111195544179062</v>
       </c>
       <c r="P12">
-        <v>1.305245639689742</v>
+        <v>3.09643930448339</v>
       </c>
       <c r="Q12">
-        <v>1.305245639689742</v>
+        <v>3.096439304483391</v>
       </c>
       <c r="R12">
-        <v>1.186061120537208</v>
+        <v>2.424240347100176</v>
       </c>
       <c r="S12">
-        <v>1.186061120537208</v>
+        <v>2.424240347100176</v>
       </c>
       <c r="T12">
-        <v>1.128758417894203</v>
+        <v>1.837246855178924</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9923242978877145</v>
+        <v>1.015430376515215</v>
       </c>
       <c r="D13">
-        <v>0.8270514076199256</v>
+        <v>0.7558949521993107</v>
       </c>
       <c r="E13">
-        <v>0.9819274992944718</v>
+        <v>0.9012389362878361</v>
       </c>
       <c r="F13">
-        <v>0.8270514076199256</v>
+        <v>0.7558949521993107</v>
       </c>
       <c r="G13">
-        <v>0.9819274992944718</v>
+        <v>0.9012389362878361</v>
       </c>
       <c r="H13">
-        <v>0.8799374194239474</v>
+        <v>2.454964487428292</v>
       </c>
       <c r="I13">
-        <v>1.164306186233971</v>
+        <v>0.8058251263421831</v>
       </c>
       <c r="J13">
-        <v>0.9551961738449745</v>
+        <v>0.9785339564379717</v>
       </c>
       <c r="K13">
-        <v>0.9819274992944718</v>
+        <v>0.9012389362878361</v>
       </c>
       <c r="L13">
-        <v>0.9923242978877145</v>
+        <v>1.015430376515215</v>
       </c>
       <c r="M13">
-        <v>0.90968785275382</v>
+        <v>0.8856626643572627</v>
       </c>
       <c r="N13">
-        <v>0.90968785275382</v>
+        <v>0.8856626643572627</v>
       </c>
       <c r="O13">
-        <v>0.994560630580537</v>
+        <v>0.8590501516855694</v>
       </c>
       <c r="P13">
-        <v>0.9337677349340373</v>
+        <v>0.8908547550007873</v>
       </c>
       <c r="Q13">
-        <v>0.9337677349340373</v>
+        <v>0.8908547550007873</v>
       </c>
       <c r="R13">
-        <v>0.9458076760241459</v>
+        <v>0.8934508003225494</v>
       </c>
       <c r="S13">
-        <v>0.9458076760241459</v>
+        <v>0.8934508003225494</v>
       </c>
       <c r="T13">
-        <v>0.9667904973841676</v>
+        <v>1.151981305868468</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>15.18988100000001</v>
+        <v>2.453648942056868</v>
       </c>
       <c r="D14">
-        <v>-0.006433271399999997</v>
+        <v>0.6335804139327493</v>
       </c>
       <c r="E14">
-        <v>-0.0012295708</v>
+        <v>0.8285075630796073</v>
       </c>
       <c r="F14">
-        <v>-0.006433271399999997</v>
+        <v>0.6335804139327493</v>
       </c>
       <c r="G14">
-        <v>-0.0012295708</v>
+        <v>0.8285075630796073</v>
       </c>
       <c r="H14">
-        <v>0.008037814299999994</v>
+        <v>0.9519883009163712</v>
       </c>
       <c r="I14">
-        <v>0.0021216777</v>
+        <v>0.8637902045593242</v>
       </c>
       <c r="J14">
-        <v>0.5669483100000006</v>
+        <v>1.041035082820297</v>
       </c>
       <c r="K14">
-        <v>-0.0012295708</v>
+        <v>0.8285075630796073</v>
       </c>
       <c r="L14">
-        <v>15.18988100000001</v>
+        <v>2.453648942056868</v>
       </c>
       <c r="M14">
-        <v>7.591723864300004</v>
+        <v>1.543614677994809</v>
       </c>
       <c r="N14">
-        <v>7.591723864300004</v>
+        <v>1.543614677994809</v>
       </c>
       <c r="O14">
-        <v>5.06185646876667</v>
+        <v>1.317006520182981</v>
       </c>
       <c r="P14">
-        <v>5.060739385933336</v>
+        <v>1.305245639689742</v>
       </c>
       <c r="Q14">
-        <v>5.060739385933336</v>
+        <v>1.305245639689742</v>
       </c>
       <c r="R14">
-        <v>3.795247146750002</v>
+        <v>1.186061120537208</v>
       </c>
       <c r="S14">
-        <v>3.795247146750002</v>
+        <v>1.186061120537208</v>
       </c>
       <c r="T14">
-        <v>2.626554326633335</v>
+        <v>1.128758417894203</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>-0.0012295708</v>
+        <v>0.9923242978877145</v>
       </c>
       <c r="D15">
-        <v>0.0030969418</v>
+        <v>0.8270514076199256</v>
       </c>
       <c r="E15">
-        <v>30.381976</v>
+        <v>0.9819274992944718</v>
       </c>
       <c r="F15">
-        <v>0.0030969418</v>
+        <v>0.8270514076199256</v>
       </c>
       <c r="G15">
-        <v>30.381976</v>
+        <v>0.9819274992944718</v>
       </c>
       <c r="H15">
-        <v>-0.0027921709</v>
+        <v>0.8799374194239474</v>
       </c>
       <c r="I15">
-        <v>0.0025420957</v>
+        <v>1.164306186233971</v>
       </c>
       <c r="J15">
-        <v>0.0037430372</v>
+        <v>0.9551961738449745</v>
       </c>
       <c r="K15">
-        <v>30.381976</v>
+        <v>0.9819274992944718</v>
       </c>
       <c r="L15">
-        <v>-0.0012295708</v>
+        <v>0.9923242978877145</v>
       </c>
       <c r="M15">
-        <v>0.0009336855</v>
+        <v>0.90968785275382</v>
       </c>
       <c r="N15">
-        <v>0.0009336855</v>
+        <v>0.90968785275382</v>
       </c>
       <c r="O15">
-        <v>0.001469822233333333</v>
+        <v>0.994560630580537</v>
       </c>
       <c r="P15">
-        <v>10.12794779033333</v>
+        <v>0.9337677349340373</v>
       </c>
       <c r="Q15">
-        <v>10.12794779033333</v>
+        <v>0.9337677349340373</v>
       </c>
       <c r="R15">
-        <v>15.19145484275</v>
+        <v>0.9458076760241459</v>
       </c>
       <c r="S15">
-        <v>15.19145484275</v>
+        <v>0.9458076760241459</v>
       </c>
       <c r="T15">
-        <v>5.0645560555</v>
+        <v>0.9667904973841676</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.0080378143</v>
+        <v>15.18988100000001</v>
       </c>
       <c r="D16">
-        <v>0.0062360681</v>
+        <v>-0.006433271399999997</v>
       </c>
       <c r="E16">
-        <v>-0.0027921709</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="F16">
-        <v>0.0062360681</v>
+        <v>-0.006433271399999997</v>
       </c>
       <c r="G16">
-        <v>-0.0027921709</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="H16">
-        <v>45.564748</v>
+        <v>0.008037814299999994</v>
       </c>
       <c r="I16">
-        <v>-0.0020635991</v>
+        <v>0.0021216777</v>
       </c>
       <c r="J16">
-        <v>-0.0055045519</v>
+        <v>0.5669483100000006</v>
       </c>
       <c r="K16">
-        <v>-0.0027921709</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="L16">
-        <v>0.0080378143</v>
+        <v>15.18988100000001</v>
       </c>
       <c r="M16">
-        <v>0.0071369412</v>
+        <v>7.591723864300004</v>
       </c>
       <c r="N16">
-        <v>0.0071369412</v>
+        <v>7.591723864300004</v>
       </c>
       <c r="O16">
-        <v>0.004070094433333333</v>
+        <v>5.06185646876667</v>
       </c>
       <c r="P16">
-        <v>0.003827237166666667</v>
+        <v>5.060739385933336</v>
       </c>
       <c r="Q16">
-        <v>0.003827237166666666</v>
+        <v>5.060739385933336</v>
       </c>
       <c r="R16">
-        <v>0.00217238515</v>
+        <v>3.795247146750002</v>
       </c>
       <c r="S16">
-        <v>0.00217238515</v>
+        <v>3.795247146750002</v>
       </c>
       <c r="T16">
-        <v>7.59477692675</v>
+        <v>2.626554326633335</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.35303696</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="D17">
-        <v>0.0026220267</v>
+        <v>0.0030969418</v>
       </c>
       <c r="E17">
-        <v>7.056093</v>
+        <v>30.381976</v>
       </c>
       <c r="F17">
-        <v>0.0026220267</v>
+        <v>0.0030969418</v>
       </c>
       <c r="G17">
-        <v>7.056093</v>
+        <v>30.381976</v>
       </c>
       <c r="H17">
-        <v>-0.0045549688</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="I17">
-        <v>0.006734231599999999</v>
+        <v>0.0025420957</v>
       </c>
       <c r="J17">
-        <v>0.021406507</v>
+        <v>0.0037430372</v>
       </c>
       <c r="K17">
-        <v>7.056093</v>
+        <v>30.381976</v>
       </c>
       <c r="L17">
-        <v>0.35303696</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="M17">
-        <v>0.17782949335</v>
+        <v>0.0009336855</v>
       </c>
       <c r="N17">
-        <v>0.17782949335</v>
+        <v>0.0009336855</v>
       </c>
       <c r="O17">
-        <v>0.1207977394333333</v>
+        <v>0.001469822233333333</v>
       </c>
       <c r="P17">
-        <v>2.470583995566666</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="Q17">
-        <v>2.470583995566666</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="R17">
-        <v>3.616961246675</v>
+        <v>15.19145484275</v>
       </c>
       <c r="S17">
-        <v>3.616961246675</v>
+        <v>15.19145484275</v>
       </c>
       <c r="T17">
-        <v>1.239222959416667</v>
+        <v>5.0645560555</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.2775652097894795</v>
+        <v>0.0080378143</v>
       </c>
       <c r="D18">
-        <v>0.001102575218739726</v>
+        <v>0.0062360681</v>
       </c>
       <c r="E18">
-        <v>2.191540842043397</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="F18">
-        <v>0.001102575218739726</v>
+        <v>0.0062360681</v>
       </c>
       <c r="G18">
-        <v>2.191540842043397</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="H18">
-        <v>2.65869690810263</v>
+        <v>45.564748</v>
       </c>
       <c r="I18">
-        <v>0.3895991182054246</v>
+        <v>-0.0020635991</v>
       </c>
       <c r="J18">
-        <v>1.196186042627398</v>
+        <v>-0.0055045519</v>
       </c>
       <c r="K18">
-        <v>2.191540842043397</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="L18">
-        <v>0.2775652097894795</v>
+        <v>0.0080378143</v>
       </c>
       <c r="M18">
-        <v>0.1393338925041096</v>
+        <v>0.0071369412</v>
       </c>
       <c r="N18">
-        <v>0.1393338925041096</v>
+        <v>0.0071369412</v>
       </c>
       <c r="O18">
-        <v>0.222755634404548</v>
+        <v>0.004070094433333333</v>
       </c>
       <c r="P18">
-        <v>0.8234028756838723</v>
+        <v>0.003827237166666667</v>
       </c>
       <c r="Q18">
-        <v>0.8234028756838723</v>
+        <v>0.003827237166666666</v>
       </c>
       <c r="R18">
-        <v>1.165437367273753</v>
+        <v>0.00217238515</v>
       </c>
       <c r="S18">
-        <v>1.165437367273753</v>
+        <v>0.00217238515</v>
       </c>
       <c r="T18">
-        <v>1.119115115997845</v>
+        <v>7.59477692675</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>2.105215041947895</v>
+        <v>0.35303696</v>
       </c>
       <c r="D19">
-        <v>3.406934172489474</v>
+        <v>0.0026220267</v>
       </c>
       <c r="E19">
-        <v>1.704390356332631</v>
+        <v>7.056093</v>
       </c>
       <c r="F19">
-        <v>3.406934172489474</v>
+        <v>0.0026220267</v>
       </c>
       <c r="G19">
-        <v>1.704390356332631</v>
+        <v>7.056093</v>
       </c>
       <c r="H19">
-        <v>6.308808240799999</v>
+        <v>-0.0045549688</v>
       </c>
       <c r="I19">
-        <v>0.03203717419426315</v>
+        <v>0.006734231599999999</v>
       </c>
       <c r="J19">
-        <v>0.1417101781263158</v>
+        <v>0.021406507</v>
       </c>
       <c r="K19">
-        <v>1.704390356332631</v>
+        <v>7.056093</v>
       </c>
       <c r="L19">
-        <v>2.105215041947895</v>
+        <v>0.35303696</v>
       </c>
       <c r="M19">
-        <v>2.756074607218684</v>
+        <v>0.17782949335</v>
       </c>
       <c r="N19">
-        <v>2.756074607218684</v>
+        <v>0.17782949335</v>
       </c>
       <c r="O19">
-        <v>1.848062129543877</v>
+        <v>0.1207977394333333</v>
       </c>
       <c r="P19">
-        <v>2.405513190256666</v>
+        <v>2.470583995566666</v>
       </c>
       <c r="Q19">
-        <v>2.405513190256667</v>
+        <v>2.470583995566666</v>
       </c>
       <c r="R19">
-        <v>2.230232481775658</v>
+        <v>3.616961246675</v>
       </c>
       <c r="S19">
-        <v>2.230232481775658</v>
+        <v>3.616961246675</v>
       </c>
       <c r="T19">
-        <v>2.283182527315096</v>
+        <v>1.239222959416667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>2.953486431123686</v>
+        <v>0.2775652097894795</v>
       </c>
       <c r="D20">
-        <v>-0.001297981805263158</v>
+        <v>0.001102575218739726</v>
       </c>
       <c r="E20">
-        <v>5.909017656742106</v>
+        <v>2.191540842043397</v>
       </c>
       <c r="F20">
-        <v>-0.001297981805263158</v>
+        <v>0.001102575218739726</v>
       </c>
       <c r="G20">
-        <v>5.909017656742106</v>
+        <v>2.191540842043397</v>
       </c>
       <c r="H20">
-        <v>0.001325737894736841</v>
+        <v>2.65869690810263</v>
       </c>
       <c r="I20">
-        <v>-0.0002393559737894737</v>
+        <v>0.3895991182054246</v>
       </c>
       <c r="J20">
-        <v>2.571007063757894</v>
+        <v>1.196186042627398</v>
       </c>
       <c r="K20">
-        <v>5.909017656742106</v>
+        <v>2.191540842043397</v>
       </c>
       <c r="L20">
-        <v>2.953486431123686</v>
+        <v>0.2775652097894795</v>
       </c>
       <c r="M20">
-        <v>1.476094224659211</v>
+        <v>0.1393338925041096</v>
       </c>
       <c r="N20">
-        <v>1.476094224659211</v>
+        <v>0.1393338925041096</v>
       </c>
       <c r="O20">
-        <v>0.9839830311148777</v>
+        <v>0.222755634404548</v>
       </c>
       <c r="P20">
-        <v>2.953735368686843</v>
+        <v>0.8234028756838723</v>
       </c>
       <c r="Q20">
-        <v>2.953735368686843</v>
+        <v>0.8234028756838723</v>
       </c>
       <c r="R20">
-        <v>3.692555940700658</v>
+        <v>1.165437367273753</v>
       </c>
       <c r="S20">
-        <v>3.692555940700658</v>
+        <v>1.165437367273753</v>
       </c>
       <c r="T20">
-        <v>1.905549925289895</v>
+        <v>1.119115115997845</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7819213021860811</v>
+        <v>2.105215041947895</v>
       </c>
       <c r="D21">
-        <v>0.7263006195540443</v>
+        <v>3.406934172489474</v>
       </c>
       <c r="E21">
-        <v>0.4599827724352957</v>
+        <v>1.704390356332631</v>
       </c>
       <c r="F21">
-        <v>0.7263006195540443</v>
+        <v>3.406934172489474</v>
       </c>
       <c r="G21">
-        <v>0.4599827724352957</v>
+        <v>1.704390356332631</v>
       </c>
       <c r="H21">
-        <v>2.048623797531584</v>
+        <v>6.308808240799999</v>
       </c>
       <c r="I21">
-        <v>1.271455114279812</v>
+        <v>0.03203717419426315</v>
       </c>
       <c r="J21">
-        <v>1.037282074883116</v>
+        <v>0.1417101781263158</v>
       </c>
       <c r="K21">
-        <v>0.4599827724352957</v>
+        <v>1.704390356332631</v>
       </c>
       <c r="L21">
-        <v>0.7819213021860811</v>
+        <v>2.105215041947895</v>
       </c>
       <c r="M21">
-        <v>0.7541109608700627</v>
+        <v>2.756074607218684</v>
       </c>
       <c r="N21">
-        <v>0.7541109608700627</v>
+        <v>2.756074607218684</v>
       </c>
       <c r="O21">
-        <v>0.9265590120066457</v>
+        <v>1.848062129543877</v>
       </c>
       <c r="P21">
-        <v>0.656068231391807</v>
+        <v>2.405513190256666</v>
       </c>
       <c r="Q21">
-        <v>0.656068231391807</v>
+        <v>2.405513190256667</v>
       </c>
       <c r="R21">
-        <v>0.6070468666526793</v>
+        <v>2.230232481775658</v>
       </c>
       <c r="S21">
-        <v>0.6070468666526793</v>
+        <v>2.230232481775658</v>
       </c>
       <c r="T21">
-        <v>1.054260946811655</v>
+        <v>2.283182527315096</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.4843167545547961</v>
+        <v>2.953486431123686</v>
       </c>
       <c r="D22">
-        <v>0.0009743324530289159</v>
+        <v>-0.001297981805263158</v>
       </c>
       <c r="E22">
-        <v>0.4593586118978514</v>
+        <v>5.909017656742106</v>
       </c>
       <c r="F22">
-        <v>0.0009743324530289159</v>
+        <v>-0.001297981805263158</v>
       </c>
       <c r="G22">
-        <v>0.4593586118978514</v>
+        <v>5.909017656742106</v>
       </c>
       <c r="H22">
-        <v>0.1189499464817591</v>
+        <v>0.001325737894736841</v>
       </c>
       <c r="I22">
-        <v>0.905859965332188</v>
+        <v>-0.0002393559737894737</v>
       </c>
       <c r="J22">
-        <v>0.6152665044859895</v>
+        <v>2.571007063757894</v>
       </c>
       <c r="K22">
-        <v>0.4593586118978514</v>
+        <v>5.909017656742106</v>
       </c>
       <c r="L22">
-        <v>0.4843167545547961</v>
+        <v>2.953486431123686</v>
       </c>
       <c r="M22">
-        <v>0.2426455435039125</v>
+        <v>1.476094224659211</v>
       </c>
       <c r="N22">
-        <v>0.2426455435039125</v>
+        <v>1.476094224659211</v>
       </c>
       <c r="O22">
-        <v>0.463717017446671</v>
+        <v>0.9839830311148777</v>
       </c>
       <c r="P22">
-        <v>0.3148832329685589</v>
+        <v>2.953735368686843</v>
       </c>
       <c r="Q22">
-        <v>0.3148832329685589</v>
+        <v>2.953735368686843</v>
       </c>
       <c r="R22">
-        <v>0.351002077700882</v>
+        <v>3.692555940700658</v>
       </c>
       <c r="S22">
-        <v>0.351002077700882</v>
+        <v>3.692555940700658</v>
       </c>
       <c r="T22">
-        <v>0.4307876858676021</v>
+        <v>1.905549925289895</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.659197884936643</v>
+        <v>0.7819213021860811</v>
       </c>
       <c r="D23">
-        <v>0.03059261043852909</v>
+        <v>0.7263006195540443</v>
       </c>
       <c r="E23">
-        <v>0.06882009600946588</v>
+        <v>0.4599827724352957</v>
       </c>
       <c r="F23">
-        <v>0.03059261043852909</v>
+        <v>0.7263006195540443</v>
       </c>
       <c r="G23">
-        <v>0.06882009600946588</v>
+        <v>0.4599827724352957</v>
       </c>
       <c r="H23">
-        <v>0.04122312722736213</v>
+        <v>2.048623797531584</v>
       </c>
       <c r="I23">
-        <v>1.404374129716781</v>
+        <v>1.271455114279812</v>
       </c>
       <c r="J23">
-        <v>1.090143372045717</v>
+        <v>1.037282074883116</v>
       </c>
       <c r="K23">
-        <v>0.06882009600946588</v>
+        <v>0.4599827724352957</v>
       </c>
       <c r="L23">
-        <v>1.659197884936643</v>
+        <v>0.7819213021860811</v>
       </c>
       <c r="M23">
-        <v>0.8448952476875862</v>
+        <v>0.7541109608700627</v>
       </c>
       <c r="N23">
-        <v>0.8448952476875862</v>
+        <v>0.7541109608700627</v>
       </c>
       <c r="O23">
-        <v>1.031388208363984</v>
+        <v>0.9265590120066457</v>
       </c>
       <c r="P23">
-        <v>0.5862035304615461</v>
+        <v>0.656068231391807</v>
       </c>
       <c r="Q23">
-        <v>0.5862035304615462</v>
+        <v>0.656068231391807</v>
       </c>
       <c r="R23">
-        <v>0.456857671848526</v>
+        <v>0.6070468666526793</v>
       </c>
       <c r="S23">
-        <v>0.456857671848526</v>
+        <v>0.6070468666526793</v>
       </c>
       <c r="T23">
-        <v>0.7157252033957496</v>
+        <v>1.054260946811655</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.1471823070372633</v>
+        <v>0.4843167545547961</v>
       </c>
       <c r="D24">
-        <v>2.837939515626966</v>
+        <v>0.0009743324530289159</v>
       </c>
       <c r="E24">
-        <v>1.999800903482981</v>
+        <v>0.4593586118978514</v>
       </c>
       <c r="F24">
-        <v>2.837939515626966</v>
+        <v>0.0009743324530289159</v>
       </c>
       <c r="G24">
-        <v>1.999800903482981</v>
+        <v>0.4593586118978514</v>
       </c>
       <c r="H24">
-        <v>2.109224680354409</v>
+        <v>0.1189499464817591</v>
       </c>
       <c r="I24">
-        <v>1.094889012079879</v>
+        <v>0.905859965332188</v>
       </c>
       <c r="J24">
-        <v>0.8163691912149976</v>
+        <v>0.6152665044859895</v>
       </c>
       <c r="K24">
-        <v>1.999800903482981</v>
+        <v>0.4593586118978514</v>
       </c>
       <c r="L24">
-        <v>0.1471823070372633</v>
+        <v>0.4843167545547961</v>
       </c>
       <c r="M24">
-        <v>1.492560911332115</v>
+        <v>0.2426455435039125</v>
       </c>
       <c r="N24">
-        <v>1.492560911332115</v>
+        <v>0.2426455435039125</v>
       </c>
       <c r="O24">
-        <v>1.360003611581369</v>
+        <v>0.463717017446671</v>
       </c>
       <c r="P24">
-        <v>1.661640908715737</v>
+        <v>0.3148832329685589</v>
       </c>
       <c r="Q24">
-        <v>1.661640908715737</v>
+        <v>0.3148832329685589</v>
       </c>
       <c r="R24">
-        <v>1.746180907407548</v>
+        <v>0.351002077700882</v>
       </c>
       <c r="S24">
-        <v>1.746180907407548</v>
+        <v>0.351002077700882</v>
       </c>
       <c r="T24">
-        <v>1.500900934966083</v>
+        <v>0.4307876858676021</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.04551485143465682</v>
+        <v>1.659197884936643</v>
       </c>
       <c r="D25">
-        <v>0.0003641079264252354</v>
+        <v>0.03059261043852909</v>
       </c>
       <c r="E25">
-        <v>1.862018380960427</v>
+        <v>0.06882009600946588</v>
       </c>
       <c r="F25">
-        <v>0.0003641079264252354</v>
+        <v>0.03059261043852909</v>
       </c>
       <c r="G25">
-        <v>1.862018380960427</v>
+        <v>0.06882009600946588</v>
       </c>
       <c r="H25">
-        <v>0.0001210995082258332</v>
+        <v>0.04122312722736213</v>
       </c>
       <c r="I25">
-        <v>0.05078285634639948</v>
+        <v>1.404374129716781</v>
       </c>
       <c r="J25">
-        <v>1.277468539084899</v>
+        <v>1.090143372045717</v>
       </c>
       <c r="K25">
-        <v>1.862018380960427</v>
+        <v>0.06882009600946588</v>
       </c>
       <c r="L25">
-        <v>0.04551485143465682</v>
+        <v>1.659197884936643</v>
       </c>
       <c r="M25">
-        <v>0.02293947968054103</v>
+        <v>0.8448952476875862</v>
       </c>
       <c r="N25">
-        <v>0.02293947968054103</v>
+        <v>0.8448952476875862</v>
       </c>
       <c r="O25">
-        <v>0.03222060523582718</v>
+        <v>1.031388208363984</v>
       </c>
       <c r="P25">
-        <v>0.6359657801071696</v>
+        <v>0.5862035304615461</v>
       </c>
       <c r="Q25">
-        <v>0.6359657801071696</v>
+        <v>0.5862035304615462</v>
       </c>
       <c r="R25">
-        <v>0.9424789303204839</v>
+        <v>0.456857671848526</v>
       </c>
       <c r="S25">
-        <v>0.9424789303204839</v>
+        <v>0.456857671848526</v>
       </c>
       <c r="T25">
-        <v>0.5393783058768388</v>
+        <v>0.7157252033957496</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>2.194373310456809</v>
+        <v>0.1471823070372633</v>
       </c>
       <c r="D26">
-        <v>0.005992967822641251</v>
+        <v>2.837939515626966</v>
       </c>
       <c r="E26">
-        <v>1.48616355596354E-05</v>
+        <v>1.999800903482981</v>
       </c>
       <c r="F26">
-        <v>0.005992967822641251</v>
+        <v>2.837939515626966</v>
       </c>
       <c r="G26">
-        <v>1.48616355596354E-05</v>
+        <v>1.999800903482981</v>
       </c>
       <c r="H26">
-        <v>1.292503516167134</v>
+        <v>2.109224680354409</v>
       </c>
       <c r="I26">
-        <v>1.52851025928105</v>
+        <v>1.094889012079879</v>
       </c>
       <c r="J26">
-        <v>1.002902977702781</v>
+        <v>0.8163691912149976</v>
       </c>
       <c r="K26">
-        <v>1.48616355596354E-05</v>
+        <v>1.999800903482981</v>
       </c>
       <c r="L26">
-        <v>2.194373310456809</v>
+        <v>0.1471823070372633</v>
       </c>
       <c r="M26">
-        <v>1.100183139139725</v>
+        <v>1.492560911332115</v>
       </c>
       <c r="N26">
-        <v>1.100183139139725</v>
+        <v>1.492560911332115</v>
       </c>
       <c r="O26">
-        <v>1.2429588458535</v>
+        <v>1.360003611581369</v>
       </c>
       <c r="P26">
-        <v>0.73346037997167</v>
+        <v>1.661640908715737</v>
       </c>
       <c r="Q26">
-        <v>0.7334603799716701</v>
+        <v>1.661640908715737</v>
       </c>
       <c r="R26">
-        <v>0.5500990003876425</v>
+        <v>1.746180907407548</v>
       </c>
       <c r="S26">
-        <v>0.5500990003876425</v>
+        <v>1.746180907407548</v>
       </c>
       <c r="T26">
-        <v>1.004049648844329</v>
+        <v>1.500900934966083</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>2.1954429681681</v>
+        <v>0.04551485143465682</v>
       </c>
       <c r="D27">
-        <v>3.862162550714233</v>
+        <v>0.0003641079264252354</v>
       </c>
       <c r="E27">
-        <v>3.406042933391579</v>
+        <v>1.862018380960427</v>
       </c>
       <c r="F27">
-        <v>3.862162550714233</v>
+        <v>0.0003641079264252354</v>
       </c>
       <c r="G27">
-        <v>3.406042933391579</v>
+        <v>1.862018380960427</v>
       </c>
       <c r="H27">
-        <v>0.1112042285159213</v>
+        <v>0.0001210995082258332</v>
       </c>
       <c r="I27">
-        <v>0.3296108323565563</v>
+        <v>0.05078285634639948</v>
       </c>
       <c r="J27">
-        <v>1.72937990097938</v>
+        <v>1.277468539084899</v>
       </c>
       <c r="K27">
-        <v>3.406042933391579</v>
+        <v>1.862018380960427</v>
       </c>
       <c r="L27">
-        <v>2.1954429681681</v>
+        <v>0.04551485143465682</v>
       </c>
       <c r="M27">
-        <v>3.028802759441167</v>
+        <v>0.02293947968054103</v>
       </c>
       <c r="N27">
-        <v>3.028802759441167</v>
+        <v>0.02293947968054103</v>
       </c>
       <c r="O27">
-        <v>2.12907211707963</v>
+        <v>0.03222060523582718</v>
       </c>
       <c r="P27">
-        <v>3.154549484091304</v>
+        <v>0.6359657801071696</v>
       </c>
       <c r="Q27">
-        <v>3.154549484091304</v>
+        <v>0.6359657801071696</v>
       </c>
       <c r="R27">
-        <v>3.217422846416373</v>
+        <v>0.9424789303204839</v>
       </c>
       <c r="S27">
-        <v>3.217422846416373</v>
+        <v>0.9424789303204839</v>
       </c>
       <c r="T27">
-        <v>1.938973902354295</v>
+        <v>0.5393783058768388</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.990455708348197</v>
+        <v>2.194373310456809</v>
       </c>
       <c r="D28">
-        <v>0.0205491510930484</v>
+        <v>0.005992967822641251</v>
       </c>
       <c r="E28">
-        <v>4.935395875863263</v>
+        <v>1.48616355596354E-05</v>
       </c>
       <c r="F28">
-        <v>0.0205491510930484</v>
+        <v>0.005992967822641251</v>
       </c>
       <c r="G28">
-        <v>4.935395875863263</v>
+        <v>1.48616355596354E-05</v>
       </c>
       <c r="H28">
-        <v>0.3645914286985004</v>
+        <v>1.292503516167134</v>
       </c>
       <c r="I28">
-        <v>1.583639468879702</v>
+        <v>1.52851025928105</v>
       </c>
       <c r="J28">
-        <v>0.6525765321215855</v>
+        <v>1.002902977702781</v>
       </c>
       <c r="K28">
-        <v>4.935395875863263</v>
+        <v>1.48616355596354E-05</v>
       </c>
       <c r="L28">
-        <v>1.990455708348197</v>
+        <v>2.194373310456809</v>
       </c>
       <c r="M28">
-        <v>1.005502429720623</v>
+        <v>1.100183139139725</v>
       </c>
       <c r="N28">
-        <v>1.005502429720623</v>
+        <v>1.100183139139725</v>
       </c>
       <c r="O28">
-        <v>1.198214776106982</v>
+        <v>1.2429588458535</v>
       </c>
       <c r="P28">
-        <v>2.31546691176817</v>
+        <v>0.73346037997167</v>
       </c>
       <c r="Q28">
-        <v>2.31546691176817</v>
+        <v>0.7334603799716701</v>
       </c>
       <c r="R28">
-        <v>2.970449152791943</v>
+        <v>0.5500990003876425</v>
       </c>
       <c r="S28">
-        <v>2.970449152791943</v>
+        <v>0.5500990003876425</v>
       </c>
       <c r="T28">
-        <v>1.591201360834049</v>
+        <v>1.004049648844329</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>2.1954429681681</v>
+      </c>
+      <c r="D29">
+        <v>3.862162550714233</v>
+      </c>
+      <c r="E29">
+        <v>3.406042933391579</v>
+      </c>
+      <c r="F29">
+        <v>3.862162550714233</v>
+      </c>
+      <c r="G29">
+        <v>3.406042933391579</v>
+      </c>
+      <c r="H29">
+        <v>0.1112042285159213</v>
+      </c>
+      <c r="I29">
+        <v>0.3296108323565563</v>
+      </c>
+      <c r="J29">
+        <v>1.72937990097938</v>
+      </c>
+      <c r="K29">
+        <v>3.406042933391579</v>
+      </c>
+      <c r="L29">
+        <v>2.1954429681681</v>
+      </c>
+      <c r="M29">
+        <v>3.028802759441167</v>
+      </c>
+      <c r="N29">
+        <v>3.028802759441167</v>
+      </c>
+      <c r="O29">
+        <v>2.12907211707963</v>
+      </c>
+      <c r="P29">
+        <v>3.154549484091304</v>
+      </c>
+      <c r="Q29">
+        <v>3.154549484091304</v>
+      </c>
+      <c r="R29">
+        <v>3.217422846416373</v>
+      </c>
+      <c r="S29">
+        <v>3.217422846416373</v>
+      </c>
+      <c r="T29">
+        <v>1.938973902354295</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.990455708348197</v>
+      </c>
+      <c r="D30">
+        <v>0.0205491510930484</v>
+      </c>
+      <c r="E30">
+        <v>4.935395875863263</v>
+      </c>
+      <c r="F30">
+        <v>0.0205491510930484</v>
+      </c>
+      <c r="G30">
+        <v>4.935395875863263</v>
+      </c>
+      <c r="H30">
+        <v>0.3645914286985004</v>
+      </c>
+      <c r="I30">
+        <v>1.583639468879702</v>
+      </c>
+      <c r="J30">
+        <v>0.6525765321215855</v>
+      </c>
+      <c r="K30">
+        <v>4.935395875863263</v>
+      </c>
+      <c r="L30">
+        <v>1.990455708348197</v>
+      </c>
+      <c r="M30">
+        <v>1.005502429720623</v>
+      </c>
+      <c r="N30">
+        <v>1.005502429720623</v>
+      </c>
+      <c r="O30">
+        <v>1.198214776106982</v>
+      </c>
+      <c r="P30">
+        <v>2.31546691176817</v>
+      </c>
+      <c r="Q30">
+        <v>2.31546691176817</v>
+      </c>
+      <c r="R30">
+        <v>2.970449152791943</v>
+      </c>
+      <c r="S30">
+        <v>2.970449152791943</v>
+      </c>
+      <c r="T30">
+        <v>1.591201360834049</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.543519114602344</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.04551787753869532</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>10.74472589727058</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.04551787753869532</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>10.74472589727058</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.3666079051996036</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>2.057630820218257</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.08491595797868635</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>10.74472589727058</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.543519114602344</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.7945184960705195</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.7945184960705195</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.215555937453099</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>4.11125429647054</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>4.11125429647054</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>5.769622196670551</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>5.769622196670551</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>2.473819595468028</v>
       </c>
     </row>
